--- a/README.xlsx
+++ b/README.xlsx
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$K$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">刷题清单!$A$1:$K$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">刷题清单!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="427">
   <si>
     <t>编号</t>
   </si>
@@ -1342,12 +1342,37 @@
   <si>
     <t>①模拟加法 ②原地运算</t>
   </si>
+  <si>
+    <t xml:space="preserve"> IPO</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/ipo/</t>
+  </si>
+  <si>
+    <t>①贪心+优先队列</t>
+  </si>
+  <si>
+    <t>贪心、堆</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACX</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一轮</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二轮</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,6 +1457,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1536,7 +1578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1684,6 +1726,18 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1745,7 +1799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1780,7 +1834,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1989,4181 +2043,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K159"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="5.109375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="11.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="41.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31.77734375" style="2" customWidth="1"/>
-    <col min="12" max="34" width="18.6640625" style="2" customWidth="1"/>
-    <col min="35" max="16354" width="28.109375" style="2" customWidth="1"/>
-    <col min="16355" max="16384" width="18.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6" style="50" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="50" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="50" customWidth="1"/>
+    <col min="6" max="7" width="5.109375" style="50" customWidth="1"/>
+    <col min="8" max="9" width="11.77734375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" style="50" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="50" customWidth="1"/>
+    <col min="12" max="34" width="18.6640625" style="50" customWidth="1"/>
+    <col min="35" max="16354" width="28.109375" style="50" customWidth="1"/>
+    <col min="16355" max="16384" width="18.6640625" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>6</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="15">
-        <v>44362</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>7</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="17">
-        <v>44323</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>11</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>12</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>13</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>17</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>26</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>27</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="17">
-        <v>44305</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>28</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="17">
-        <v>44305</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>35</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>39</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="15">
-        <v>44363</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>40</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="17">
-        <v>44311</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>51</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="2" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51">
+        <v>502</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="17">
-        <v>44309</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>52</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="17">
-        <v>44309</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>53</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>54</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>59</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>61</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>62</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="24">
-        <v>44389</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" s="39"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>70</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="17">
-        <v>44305</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>73</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="40"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>74</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K26" s="41"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>79</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="40"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>82</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>83</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>96</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="17">
-        <v>44315</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K30" s="34"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>102</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>103</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>104</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>121</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>122</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="17">
-        <v>44343</v>
-      </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K35" s="34"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>125</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K36" s="21"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>130</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="17">
-        <v>44302</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K37" s="34"/>
-    </row>
-    <row r="38" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>131</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="2">
-        <v>2</v>
-      </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>132</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="2">
-        <v>2</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>136</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H40" s="17">
-        <v>44322</v>
-      </c>
-      <c r="I40" s="17">
-        <v>44334</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K40" s="34"/>
-    </row>
-    <row r="41" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>137</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" s="17">
-        <v>44322</v>
-      </c>
-      <c r="I41" s="17">
-        <v>44334</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K41" s="34"/>
-    </row>
-    <row r="42" spans="1:11" s="4" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>144</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>150</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K43" s="42"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>153</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="K44" s="35"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>154</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="K45" s="35"/>
-    </row>
-    <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>156</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="37"/>
-    </row>
-    <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
-        <v>175</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" s="30">
-        <v>44314</v>
-      </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="43"/>
-    </row>
-    <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>176</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" s="30">
-        <v>44314</v>
-      </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="43"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>177</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" s="30">
-        <v>44314</v>
-      </c>
-      <c r="I49" s="30"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="43"/>
-    </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>190</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="K50" s="37"/>
-    </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>191</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H51" s="17">
-        <v>44347</v>
-      </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K51" s="34"/>
-    </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>198</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K52" s="44"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <v>199</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K53" s="37"/>
-    </row>
-    <row r="54" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>200</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" s="17">
-        <v>44301</v>
-      </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K54" s="34"/>
-    </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>206</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>208</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K56" s="40"/>
-    </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>216</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="17">
-        <v>44311</v>
-      </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="34"/>
-    </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>225</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="2">
-        <v>2</v>
-      </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K58" s="21"/>
-    </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>226</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="2">
-        <v>2</v>
-      </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K59" s="21"/>
-    </row>
-    <row r="60" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>227</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="2">
-        <v>2</v>
-      </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>231</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="17">
-        <v>44347</v>
-      </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K61" s="34"/>
-    </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>232</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="2">
-        <v>2</v>
-      </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
-        <v>235</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="K63" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
-        <v>240</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="K64" s="41"/>
-    </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>250</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I65" s="28"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="37"/>
-    </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>289</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K66" s="40"/>
-    </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>303</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H67" s="17">
-        <v>44328</v>
-      </c>
-      <c r="I67" s="17"/>
-      <c r="J67" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="K67" s="34"/>
-    </row>
-    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>304</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H68" s="17">
-        <v>44328</v>
-      </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="K68" s="34"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <v>305</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K69" s="9"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>338</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="2">
-        <v>1</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K70" s="40"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>342</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H71" s="17">
-        <v>44347</v>
-      </c>
-      <c r="I71" s="17"/>
-      <c r="J71" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K71" s="34"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>343</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H72" s="17">
-        <v>44307</v>
-      </c>
-      <c r="I72" s="17"/>
-      <c r="J72" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K72" s="34"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>344</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H73" s="17">
-        <v>44307</v>
-      </c>
-      <c r="I73" s="17"/>
-      <c r="J73" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K73" s="34"/>
-    </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>345</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H74" s="17">
-        <v>44307</v>
-      </c>
-      <c r="I74" s="17"/>
-      <c r="J74" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K74" s="34"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>346</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="34"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>371</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H76" s="17">
-        <v>44306</v>
-      </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K76" s="34"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>393</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H77" s="17">
-        <v>44334</v>
-      </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K77" s="34"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
-        <v>405</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K78" s="36" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>455</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H79" s="17">
-        <v>44343</v>
-      </c>
-      <c r="I79" s="17"/>
-      <c r="J79" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K79" s="34"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>461</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H80" s="17">
-        <v>44343</v>
-      </c>
-      <c r="I80" s="17">
-        <v>44347</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K80" s="34"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <v>463</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H81" s="17">
-        <v>44301</v>
-      </c>
-      <c r="I81" s="17"/>
-      <c r="J81" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K81" s="34"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>474</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>477</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H83" s="17">
-        <v>44344</v>
-      </c>
-      <c r="I83" s="17">
-        <v>44347</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K83" s="34"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
-        <v>510</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I84" s="17"/>
-      <c r="J84" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K84" s="34"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>511</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K85" s="34"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>512</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I86" s="17"/>
-      <c r="J86" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K86" s="34"/>
-    </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>513</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H87" s="17">
-        <v>44357</v>
-      </c>
-      <c r="I87" s="17"/>
-      <c r="J87" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K87" s="34"/>
-    </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>515</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H88" s="17">
-        <v>44357</v>
-      </c>
-      <c r="I88" s="17"/>
-      <c r="J88" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K88" s="34"/>
-    </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
-        <v>517</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H89" s="17">
-        <v>44357</v>
-      </c>
-      <c r="I89" s="17"/>
-      <c r="J89" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="K89" s="34"/>
-    </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>523</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H90" s="17">
-        <v>44349</v>
-      </c>
-      <c r="I90" s="17"/>
-      <c r="J90" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="K90" s="34"/>
-    </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>524</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H91" s="17">
-        <v>44349</v>
-      </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="K91" s="34"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>526</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H92" s="17">
-        <v>44349</v>
-      </c>
-      <c r="I92" s="17"/>
-      <c r="J92" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K92" s="34"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <v>527</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I93" s="17"/>
-      <c r="J93" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K93" s="34"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>543</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="2">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K94" s="40"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
-        <v>554</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" s="17">
-        <v>44322</v>
-      </c>
-      <c r="I95" s="17"/>
-      <c r="J95" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="K95" s="34"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
-        <v>589</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H96" s="17">
-        <v>44344</v>
-      </c>
-      <c r="I96" s="17"/>
-      <c r="J96" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K96" s="34"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>589</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H97" s="17">
-        <v>44355</v>
-      </c>
-      <c r="I97" s="17"/>
-      <c r="J97" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K97" s="34"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>590</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H98" s="17">
-        <v>44355</v>
-      </c>
-      <c r="I98" s="17"/>
-      <c r="J98" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K98" s="34"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
-        <v>617</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="K99" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>648</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="K100" s="40"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>654</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>690</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H102" s="17">
-        <v>44322</v>
-      </c>
-      <c r="I102" s="17"/>
-      <c r="J102" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K102" s="34"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>695</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H103" s="17">
-        <v>44301</v>
-      </c>
-      <c r="I103" s="17"/>
-      <c r="J103" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K103" s="34"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>720</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="K104" s="40"/>
-    </row>
-    <row r="105" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
-        <v>739</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H105" s="17">
-        <v>44306</v>
-      </c>
-      <c r="I105" s="17"/>
-      <c r="J105" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="K105" s="34"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>824</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="2">
-        <v>1</v>
-      </c>
-      <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
-      <c r="J106" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K106" s="40"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
-        <v>827</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H107" s="17">
-        <v>44302</v>
-      </c>
-      <c r="I107" s="17"/>
-      <c r="J107" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K107" s="34"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>832</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="2">
-        <v>1</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K108" s="21"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>867</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="2">
-        <v>1</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>868</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="2">
-        <v>1</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K110" s="40"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
-        <v>872</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="17">
-        <v>44326</v>
-      </c>
-      <c r="I111" s="17"/>
-      <c r="J111" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="K111" s="34"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
-        <v>873</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112" s="17">
-        <v>44326</v>
-      </c>
-      <c r="I112" s="17"/>
-      <c r="J112" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="K112" s="34"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
-        <v>874</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" s="17">
-        <v>44326</v>
-      </c>
-      <c r="I113" s="17"/>
-      <c r="J113" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K113" s="34"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
-        <v>875</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H114" s="17">
-        <v>44326</v>
-      </c>
-      <c r="I114" s="17"/>
-      <c r="J114" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K114" s="34"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
-        <v>926</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H115" s="17">
-        <v>44305</v>
-      </c>
-      <c r="I115" s="17"/>
-      <c r="J115" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="K115" s="34"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
-        <v>965</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H116" s="17">
-        <v>44348</v>
-      </c>
-      <c r="I116" s="17"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="34"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>997</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H117" s="21"/>
-      <c r="I117" s="21"/>
-      <c r="J117" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>998</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H118" s="21"/>
-      <c r="I118" s="21"/>
-      <c r="J118" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>999</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K119" s="21"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
-        <v>1019</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H120" s="17">
-        <v>44306</v>
-      </c>
-      <c r="I120" s="17"/>
-      <c r="J120" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K120" s="34"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>1047</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="2">
-        <v>2</v>
-      </c>
-      <c r="H121" s="21"/>
-      <c r="I121" s="21"/>
-      <c r="J121" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="K121" s="21"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>1052</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="2">
-        <v>1</v>
-      </c>
-      <c r="H122" s="21"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="K122" s="40"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
-        <v>1310</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H123" s="17">
-        <v>44328</v>
-      </c>
-      <c r="I123" s="17"/>
-      <c r="J123" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="K123" s="34"/>
-    </row>
-    <row r="124" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
-        <v>1442</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H124" s="17">
-        <v>44334</v>
-      </c>
-      <c r="I124" s="17"/>
-      <c r="J124" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="K124" s="34"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
-        <v>1486</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H125" s="17">
-        <v>44323</v>
-      </c>
-      <c r="I125" s="17"/>
-      <c r="J125" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="K125" s="34"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>1603</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H126" s="21"/>
-      <c r="I126" s="21"/>
-      <c r="J126" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K126" s="40"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
-        <v>1720</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127" s="17">
-        <v>44322</v>
-      </c>
-      <c r="I127" s="17"/>
-      <c r="J127" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="K127" s="34"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
-        <v>1880</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H128" s="17">
-        <v>44357</v>
-      </c>
-      <c r="I128" s="17"/>
-      <c r="J128" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K128" s="34"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
-      <c r="J129" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="K129" s="35"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H130" s="17">
-        <v>44313</v>
-      </c>
-      <c r="I130" s="17"/>
-      <c r="J130" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="K130" s="34"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H131" s="17">
-        <v>44313</v>
-      </c>
-      <c r="I131" s="17"/>
-      <c r="J131" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="K131" s="34"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H132" s="17">
-        <v>44313</v>
-      </c>
-      <c r="I132" s="17"/>
-      <c r="J132" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="K132" s="34"/>
-    </row>
-    <row r="139" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
-        <v>401</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H139" s="24">
-        <v>44368</v>
-      </c>
-      <c r="I139" s="24"/>
-      <c r="J139" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="K139" s="39"/>
-    </row>
-    <row r="140" spans="1:11" s="13" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="13">
-        <v>402</v>
-      </c>
-      <c r="B140" s="46" t="s">
-        <v>404</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H140" s="47">
-        <v>44368</v>
-      </c>
-      <c r="I140" s="47"/>
-      <c r="J140" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="K140" s="48"/>
-    </row>
-    <row r="141" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
-        <v>46</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141" s="24">
-        <v>44369</v>
-      </c>
-      <c r="I141" s="24"/>
-      <c r="J141" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K141" s="39"/>
-    </row>
-    <row r="142" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="13">
-        <v>47</v>
-      </c>
-      <c r="B142" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F142" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142" s="47">
-        <v>44369</v>
-      </c>
-      <c r="I142" s="47"/>
-      <c r="J142" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="K142" s="48"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
-        <v>1</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H148" s="24">
-        <v>44372</v>
-      </c>
-      <c r="I148" s="24"/>
-      <c r="J148" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K148" s="39"/>
-    </row>
-    <row r="149" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
-        <v>2</v>
-      </c>
-      <c r="B149" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H149" s="24">
-        <v>44372</v>
-      </c>
-      <c r="I149" s="24"/>
-      <c r="J149" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K149" s="39"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>149</v>
+      <c r="E2" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="H2" s="52">
+        <v>44450</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K133"/>
+  <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="13" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B122" r:id="rId1" tooltip="https://leetcode-cn.com/problems/grumpy-bookstore-owner/"/>
-    <hyperlink ref="B108" r:id="rId2" tooltip="https://leetcode-cn.com/problems/flipping-an-image/"/>
-    <hyperlink ref="B106" r:id="rId3" tooltip="https://leetcode-cn.com/problems/goat-latin/"/>
-    <hyperlink ref="C94" r:id="rId4"/>
-    <hyperlink ref="C109" r:id="rId5"/>
-    <hyperlink ref="B110" r:id="rId6" tooltip="https://leetcode-cn.com/problems/binary-gap/"/>
-    <hyperlink ref="B68" r:id="rId7" tooltip="https://leetcode-cn.com/problems/range-sum-query-2d-immutable/"/>
-    <hyperlink ref="B31" r:id="rId8" tooltip="https://leetcode-cn.com/problems/binary-tree-level-order-traversal/"/>
-    <hyperlink ref="B32" r:id="rId9" tooltip="https://leetcode-cn.com/problems/binary-tree-zigzag-level-order-traversal/"/>
-    <hyperlink ref="C32" r:id="rId10" tooltip="https://leetcode-cn.com/problems/binary-tree-zigzag-level-order-traversal/"/>
-    <hyperlink ref="B33" r:id="rId11" tooltip="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/"/>
-    <hyperlink ref="B70" r:id="rId12" tooltip="https://leetcode-cn.com/problems/counting-bits/"/>
-    <hyperlink ref="B9" r:id="rId13" tooltip="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/"/>
-    <hyperlink ref="B62" r:id="rId14" tooltip="https://leetcode-cn.com/problems/implement-queue-using-stacks/"/>
-    <hyperlink ref="B38" r:id="rId15" tooltip="https://leetcode-cn.com/problems/palindrome-partitioning/"/>
-    <hyperlink ref="B36" r:id="rId16" tooltip="https://leetcode-cn.com/problems/valid-palindrome/"/>
-    <hyperlink ref="B121" r:id="rId17" tooltip="https://leetcode-cn.com/problems/remove-all-adjacent-duplicates-in-string/"/>
-    <hyperlink ref="B22" r:id="rId18" tooltip="https://leetcode-cn.com/problems/rotate-list/"/>
-    <hyperlink ref="B60" r:id="rId19" tooltip="https://leetcode-cn.com/problems/basic-calculator-ii/"/>
-    <hyperlink ref="B59" r:id="rId20" tooltip="https://leetcode-cn.com/problems/invert-binary-tree/"/>
-    <hyperlink ref="B58" r:id="rId21" tooltip="https://leetcode-cn.com/problems/implement-stack-using-queues/"/>
-    <hyperlink ref="B20" r:id="rId22" tooltip="https://leetcode-cn.com/problems/spiral-matrix/"/>
-    <hyperlink ref="B141" r:id="rId23" tooltip="https://leetcode-cn.com/problems/permutations/"/>
-    <hyperlink ref="B142" r:id="rId24" tooltip="https://leetcode-cn.com/problems/permutations-ii/"/>
-    <hyperlink ref="B10" r:id="rId25" tooltip="https://leetcode-cn.com/problems/remove-element/"/>
-    <hyperlink ref="B149" r:id="rId26" tooltip="https://leetcode-cn.com/problems/add-two-numbers/"/>
-    <hyperlink ref="B21" r:id="rId27" tooltip="https://leetcode-cn.com/problems/spiral-matrix-ii/"/>
-    <hyperlink ref="B19" r:id="rId28" tooltip="https://leetcode-cn.com/problems/maximum-subarray/"/>
-    <hyperlink ref="B34" r:id="rId29" tooltip="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock/"/>
-    <hyperlink ref="B55" r:id="rId30" tooltip="https://leetcode-cn.com/problems/reverse-linked-list/"/>
-    <hyperlink ref="B42" r:id="rId31" tooltip="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
-    <hyperlink ref="B126" r:id="rId32" tooltip="https://leetcode-cn.com/problems/design-parking-system/"/>
-    <hyperlink ref="B119" r:id="rId33" tooltip="https://leetcode-cn.com/problems/available-captures-for-rook/"/>
-    <hyperlink ref="B101" r:id="rId34" tooltip="https://leetcode-cn.com/problems/maximum-binary-tree/"/>
-    <hyperlink ref="B118" r:id="rId35" tooltip="https://leetcode-cn.com/problems/maximum-binary-tree-ii/"/>
-    <hyperlink ref="B51" r:id="rId36" tooltip="https://leetcode-cn.com/problems/number-of-1-bits/"/>
-    <hyperlink ref="B25" r:id="rId37" tooltip="https://leetcode-cn.com/problems/set-matrix-zeroes/"/>
-    <hyperlink ref="B43" r:id="rId38" tooltip="https://leetcode-cn.com/problems/evaluate-reverse-polish-notation/"/>
-    <hyperlink ref="B6" r:id="rId39" tooltip="https://leetcode-cn.com/problems/integer-to-roman/"/>
-    <hyperlink ref="B78" r:id="rId40" tooltip="https://leetcode-cn.com/problems/convert-a-number-to-hexadecimal/"/>
-    <hyperlink ref="B63" r:id="rId41" tooltip="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-search-tree/"/>
-    <hyperlink ref="B99" r:id="rId42" tooltip="https://leetcode-cn.com/problems/merge-two-binary-trees/"/>
-    <hyperlink ref="B8" r:id="rId43" tooltip="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
-    <hyperlink ref="B29" r:id="rId44" tooltip="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list/"/>
-    <hyperlink ref="B28" r:id="rId45" tooltip="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-list-ii/"/>
-    <hyperlink ref="B50" r:id="rId46" tooltip="https://leetcode-cn.com/problems/reverse-bits/"/>
-    <hyperlink ref="B52" r:id="rId47" tooltip="https://leetcode-cn.com/problems/house-robber/"/>
-    <hyperlink ref="B53" r:id="rId48" tooltip="https://leetcode-cn.com/problems/binary-tree-right-side-view/"/>
-    <hyperlink ref="B54" r:id="rId49" tooltip="https://leetcode-cn.com/problems/number-of-islands/"/>
-    <hyperlink ref="B12" r:id="rId50" tooltip="https://leetcode-cn.com/problems/search-insert-position/"/>
-    <hyperlink ref="B26" r:id="rId51" tooltip="https://leetcode-cn.com/problems/search-a-2d-matrix/"/>
-    <hyperlink ref="B64" r:id="rId52" tooltip="https://leetcode-cn.com/problems/search-a-2d-matrix-ii/"/>
-    <hyperlink ref="B44" r:id="rId53" tooltip="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/"/>
-    <hyperlink ref="B45" r:id="rId54" tooltip="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array-ii/"/>
-    <hyperlink ref="B129" r:id="rId55" tooltip="https://leetcode-cn.com/problems/lian-biao-zhong-dao-shu-di-kge-jie-dian-lcof/"/>
-    <hyperlink ref="B5" r:id="rId56" tooltip="https://leetcode-cn.com/problems/container-with-most-water/"/>
-    <hyperlink ref="B7" r:id="rId57" tooltip="https://leetcode-cn.com/problems/roman-to-integer/"/>
-    <hyperlink ref="B66" r:id="rId58" tooltip="https://leetcode-cn.com/problems/game-of-life/"/>
-    <hyperlink ref="B56" r:id="rId59" tooltip="https://leetcode-cn.com/problems/implement-trie-prefix-tree/"/>
-    <hyperlink ref="B100" r:id="rId60" tooltip="https://leetcode-cn.com/problems/replace-words/"/>
-    <hyperlink ref="C100" r:id="rId61"/>
-    <hyperlink ref="C56" r:id="rId62"/>
-    <hyperlink ref="B104" r:id="rId63" tooltip="https://leetcode-cn.com/problems/longest-word-in-dictionary/"/>
-    <hyperlink ref="B27" r:id="rId64" tooltip="https://leetcode-cn.com/problems/word-search/"/>
-    <hyperlink ref="B81" r:id="rId65" tooltip="https://leetcode-cn.com/problems/island-perimeter/"/>
-    <hyperlink ref="B103" r:id="rId66" tooltip="https://leetcode-cn.com/problems/max-area-of-island/"/>
-    <hyperlink ref="B107" r:id="rId67" tooltip="https://leetcode-cn.com/problems/making-a-large-island/"/>
-    <hyperlink ref="B37" r:id="rId68" tooltip="https://leetcode-cn.com/problems/surrounded-regions/"/>
-    <hyperlink ref="B23" r:id="rId69" tooltip="https://leetcode-cn.com/problems/unique-paths/"/>
-    <hyperlink ref="B115" r:id="rId70" tooltip="https://leetcode-cn.com/problems/flip-string-to-monotone-increasing/"/>
-    <hyperlink ref="B11" r:id="rId71" tooltip="https://leetcode-cn.com/problems/implement-strstr/"/>
-    <hyperlink ref="B76" r:id="rId72" tooltip="https://leetcode-cn.com/problems/sum-of-two-integers/"/>
-    <hyperlink ref="B120" r:id="rId73" tooltip="https://leetcode-cn.com/problems/next-greater-node-in-linked-list/"/>
-    <hyperlink ref="B105" r:id="rId74" tooltip="https://leetcode-cn.com/problems/daily-temperatures/"/>
-    <hyperlink ref="B72" r:id="rId75" tooltip="https://leetcode-cn.com/problems/integer-break/"/>
-    <hyperlink ref="B73" r:id="rId76" tooltip="https://leetcode-cn.com/problems/reverse-string/"/>
-    <hyperlink ref="B74" r:id="rId77" tooltip="https://leetcode-cn.com/problems/reverse-vowels-of-a-string/"/>
-    <hyperlink ref="B17" r:id="rId78" tooltip="https://leetcode-cn.com/problems/n-queens/"/>
-    <hyperlink ref="B13" r:id="rId79" tooltip="https://leetcode-cn.com/problems/combination-sum/"/>
-    <hyperlink ref="C13" r:id="rId80"/>
-    <hyperlink ref="B14" r:id="rId81" tooltip="https://leetcode-cn.com/problems/combination-sum-ii/"/>
-    <hyperlink ref="B57" r:id="rId82" tooltip="https://leetcode-cn.com/problems/combination-sum-iii/"/>
-    <hyperlink ref="B130" r:id="rId83" tooltip="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-lcof/"/>
-    <hyperlink ref="B131" r:id="rId84" tooltip="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-ii-lcof/"/>
-    <hyperlink ref="C131" r:id="rId85"/>
-    <hyperlink ref="B132" r:id="rId86" tooltip="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-ii-lcof/"/>
-    <hyperlink ref="C132" r:id="rId87" tooltip="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-iii-lcof/"/>
-    <hyperlink ref="B48" r:id="rId88" tooltip="https://leetcode-cn.com/problems/second-highest-salary/"/>
-    <hyperlink ref="B49" r:id="rId89" tooltip="https://leetcode-cn.com/problems/nth-highest-salary/"/>
-    <hyperlink ref="B30" r:id="rId90" tooltip="https://leetcode-cn.com/problems/unique-binary-search-trees/"/>
-    <hyperlink ref="B40" r:id="rId91" tooltip="https://leetcode-cn.com/problems/single-number/"/>
-    <hyperlink ref="B41" r:id="rId92" tooltip="https://leetcode-cn.com/problems/single-number-ii/"/>
-    <hyperlink ref="B127" r:id="rId93" tooltip="https://leetcode-cn.com/problems/decode-xored-array/"/>
-    <hyperlink ref="B102" r:id="rId94" tooltip="https://leetcode-cn.com/problems/employee-importance/"/>
-    <hyperlink ref="B95" r:id="rId95" tooltip="https://leetcode-cn.com/problems/brick-wall/"/>
-    <hyperlink ref="B125" r:id="rId96" tooltip="https://leetcode-cn.com/problems/xor-operation-in-an-array/"/>
-    <hyperlink ref="B4" r:id="rId97" tooltip="https://leetcode-cn.com/problems/reverse-integer/"/>
-    <hyperlink ref="B111" r:id="rId98" tooltip="https://leetcode-cn.com/problems/leaf-similar-trees/"/>
-    <hyperlink ref="B112" r:id="rId99" tooltip="https://leetcode-cn.com/problems/length-of-longest-fibonacci-subsequence/"/>
-    <hyperlink ref="B113" r:id="rId100" tooltip="https://leetcode-cn.com/problems/walking-robot-simulation/"/>
-    <hyperlink ref="B114" r:id="rId101" tooltip="https://leetcode-cn.com/problems/koko-eating-bananas/"/>
-    <hyperlink ref="B123" r:id="rId102" tooltip="https://leetcode-cn.com/problems/xor-queries-of-a-subarray/"/>
-    <hyperlink ref="B67" r:id="rId103" tooltip="https://leetcode-cn.com/problems/range-sum-query-immutable/"/>
-    <hyperlink ref="B124" r:id="rId104" tooltip="https://leetcode-cn.com/problems/count-triplets-that-can-form-two-arrays-of-equal-xor/"/>
-    <hyperlink ref="B77" r:id="rId105" tooltip="https://leetcode-cn.com/problems/utf-8-validation/"/>
-    <hyperlink ref="B35" r:id="rId106" tooltip="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/"/>
-    <hyperlink ref="B80" r:id="rId107" tooltip="https://leetcode-cn.com/problems/hamming-distance/"/>
-    <hyperlink ref="B79" r:id="rId108" tooltip="https://leetcode-cn.com/problems/assign-cookies/"/>
-    <hyperlink ref="B83" r:id="rId109" tooltip="https://leetcode-cn.com/problems/total-hamming-distance/"/>
-    <hyperlink ref="B96" r:id="rId110" tooltip="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/"/>
-    <hyperlink ref="B61" r:id="rId111" tooltip="https://leetcode-cn.com/problems/power-of-two/"/>
-    <hyperlink ref="B71" r:id="rId112" tooltip="https://leetcode-cn.com/problems/power-of-four/"/>
-    <hyperlink ref="B116" r:id="rId113" tooltip="https://leetcode-cn.com/problems/univalued-binary-tree/"/>
-    <hyperlink ref="B90" r:id="rId114" tooltip="https://leetcode-cn.com/problems/continuous-subarray-sum/"/>
-    <hyperlink ref="B91" r:id="rId115" tooltip="https://leetcode-cn.com/problems/longest-word-in-dictionary-through-deleting/"/>
-    <hyperlink ref="B92" r:id="rId116" tooltip="https://leetcode-cn.com/problems/beautiful-arrangement/"/>
-    <hyperlink ref="B93" r:id="rId117" tooltip="https://leetcode-cn.com/problems/word-abbreviation"/>
-    <hyperlink ref="B97" r:id="rId118" tooltip="https://leetcode-cn.com/problems/word-abbreviation"/>
-    <hyperlink ref="C97" r:id="rId119"/>
-    <hyperlink ref="B89" r:id="rId120" tooltip="https://leetcode-cn.com/problems/super-washing-machines/"/>
-    <hyperlink ref="B88" r:id="rId121" tooltip="https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/"/>
-    <hyperlink ref="B87" r:id="rId122" tooltip="https://leetcode-cn.com/problems/find-bottom-left-tree-value/"/>
-    <hyperlink ref="C85" r:id="rId123"/>
-    <hyperlink ref="B128" r:id="rId124" tooltip="https://leetcode-cn.com/problems/check-if-word-equals-summation-of-two-words/"/>
-    <hyperlink ref="B139" r:id="rId125" tooltip="https://leetcode-cn.com/problems/binary-watch/"/>
-    <hyperlink ref="B140" r:id="rId126" tooltip="https://leetcode-cn.com/problems/remove-k-digits/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6172,7 +2143,7 @@
   <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>

--- a/README.xlsx
+++ b/README.xlsx
@@ -1349,9 +1349,6 @@
     <t>https://leetcode-cn.com/problems/ipo/</t>
   </si>
   <si>
-    <t>①贪心+优先队列</t>
-  </si>
-  <si>
     <t>贪心、堆</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1365,6 +1362,10 @@
   </si>
   <si>
     <t>第二轮</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>①贪心+堆</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2047,7 +2048,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2089,10 +2090,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" s="49" t="s">
         <v>425</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>426</v>
       </c>
       <c r="J1" s="49" t="s">
         <v>7</v>
@@ -2115,19 +2116,19 @@
         <v>62</v>
       </c>
       <c r="E2" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="51" t="s">
         <v>423</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>424</v>
       </c>
       <c r="H2" s="52">
         <v>44450</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/README.xlsx
+++ b/README.xlsx
@@ -2048,7 +2048,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/README.xlsx
+++ b/README.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="433">
   <si>
     <t>编号</t>
   </si>
@@ -1366,6 +1366,28 @@
   </si>
   <si>
     <t>①贪心+堆</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/top-k-frequent-words/</t>
+  </si>
+  <si>
+    <t>前K个高频单词</t>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、堆</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACX</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>①哈希表+全排序 ②哈希表+堆</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2044,11 +2066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2125,17 +2147,49 @@
         <v>423</v>
       </c>
       <c r="H2" s="52">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
+        <v>692</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" s="52">
+        <v>44451</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://leetcode-cn.com/problems/top-k-frequent-words/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/README.xlsx
+++ b/README.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="439">
   <si>
     <t>编号</t>
   </si>
@@ -1388,6 +1388,28 @@
   </si>
   <si>
     <t>①哈希表+全排序 ②哈希表+堆</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-threaded-cpu/</t>
+  </si>
+  <si>
+    <t>单线程 CPU</t>
+  </si>
+  <si>
+    <t>堆</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACX</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>①堆</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2066,11 +2088,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2182,14 +2204,44 @@
         <v>432</v>
       </c>
     </row>
+    <row r="4" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
+        <v>1834</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>437</v>
+      </c>
+      <c r="H4" s="52">
+        <v>44452</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://leetcode-cn.com/problems/top-k-frequent-words/"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://leetcode-cn.com/problems/single-threaded-cpu/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/README.xlsx
+++ b/README.xlsx
@@ -87,19 +87,19 @@
     <t>哈希表、堆</t>
   </si>
   <si>
+    <t>①哈希表+全排序 ②哈希表+堆</t>
+  </si>
+  <si>
+    <t>单线程CPU</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-threaded-cpu/</t>
+  </si>
+  <si>
+    <t>堆</t>
+  </si>
+  <si>
     <t>ACX</t>
-  </si>
-  <si>
-    <t>①哈希表+全排序 ②哈希表+堆</t>
-  </si>
-  <si>
-    <t>单线程CPU</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/single-threaded-cpu/</t>
-  </si>
-  <si>
-    <t>堆</t>
   </si>
   <si>
     <t>①堆</t>
@@ -2680,7 +2680,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6636363636364" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -2766,33 +2766,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="51" customFormat="1" spans="1:10">
-      <c r="A3" s="51">
+    <row r="3" s="50" customFormat="1" spans="1:10">
+      <c r="A3" s="50">
         <v>692</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="51" t="s">
+      <c r="F3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="53">
+        <v>44451</v>
+      </c>
+      <c r="I3" s="53">
+        <v>44454</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="54">
-        <v>44451</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" s="51" customFormat="1" spans="1:10">
@@ -2800,22 +2803,22 @@
         <v>1834</v>
       </c>
       <c r="B4" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="54">
         <v>44452</v>

--- a/README.xlsx
+++ b/README.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22100" windowHeight="9890"/>
+    <workbookView windowWidth="27870" windowHeight="13130"/>
   </bookViews>
   <sheets>
     <sheet name="刷题清单" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="435">
   <si>
     <t>编号</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>堆</t>
-  </si>
-  <si>
-    <t>ACX</t>
   </si>
   <si>
     <t>①堆</t>
@@ -2161,7 +2158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2315,16 +2312,10 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2680,23 +2671,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6636363636364" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="6" style="52" customWidth="1"/>
-    <col min="2" max="2" width="29.3363636363636" style="52" customWidth="1"/>
-    <col min="3" max="3" width="28.1090909090909" style="52" customWidth="1"/>
-    <col min="4" max="4" width="6.44545454545455" style="52" customWidth="1"/>
-    <col min="5" max="5" width="24.4454545454545" style="52" customWidth="1"/>
-    <col min="6" max="7" width="5.10909090909091" style="52" customWidth="1"/>
-    <col min="8" max="9" width="11.7818181818182" style="52" customWidth="1"/>
-    <col min="10" max="10" width="28.3363636363636" style="52" customWidth="1"/>
-    <col min="11" max="11" width="29.6636363636364" style="52" customWidth="1"/>
-    <col min="12" max="34" width="18.6636363636364" style="52" customWidth="1"/>
-    <col min="35" max="16354" width="28.1090909090909" style="52" customWidth="1"/>
-    <col min="16355" max="16384" width="18.6636363636364" style="52" customWidth="1"/>
+    <col min="1" max="1" width="6" style="51" customWidth="1"/>
+    <col min="2" max="2" width="29.3363636363636" style="51" customWidth="1"/>
+    <col min="3" max="3" width="28.1090909090909" style="51" customWidth="1"/>
+    <col min="4" max="4" width="6.44545454545455" style="51" customWidth="1"/>
+    <col min="5" max="5" width="24.4454545454545" style="51" customWidth="1"/>
+    <col min="6" max="7" width="5.10909090909091" style="51" customWidth="1"/>
+    <col min="8" max="9" width="11.7818181818182" style="51" customWidth="1"/>
+    <col min="10" max="10" width="28.3363636363636" style="51" customWidth="1"/>
+    <col min="11" max="11" width="29.6636363636364" style="51" customWidth="1"/>
+    <col min="12" max="34" width="18.6636363636364" style="51" customWidth="1"/>
+    <col min="35" max="16354" width="28.1090909090909" style="51" customWidth="1"/>
+    <col min="16355" max="16384" width="18.6636363636364" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="49" customFormat="1" spans="1:11">
@@ -2756,10 +2747,10 @@
       <c r="G2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="52">
         <v>44451</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="52">
         <v>44454</v>
       </c>
       <c r="J2" s="50" t="s">
@@ -2788,43 +2779,46 @@
       <c r="G3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="52">
         <v>44451</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="52">
         <v>44454</v>
       </c>
       <c r="J3" s="50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="51" customFormat="1" spans="1:10">
-      <c r="A4" s="51">
+    <row r="4" s="50" customFormat="1" spans="1:10">
+      <c r="A4" s="50">
         <v>1834</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="51" t="s">
+      <c r="F4" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="52">
+        <v>44452</v>
+      </c>
+      <c r="I4" s="52">
+        <v>44454</v>
+      </c>
+      <c r="J4" s="50" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="54">
-        <v>44452</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2902,29 +2896,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -2933,29 +2927,29 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="34"/>
     </row>
@@ -2964,27 +2958,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -2993,30 +2987,30 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="35" t="s">
         <v>47</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3024,27 +3018,27 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3053,30 +3047,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3084,16 +3078,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3104,7 +3098,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3112,29 +3106,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3143,29 +3137,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3174,22 +3168,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3201,29 +3195,29 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3232,29 +3226,29 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3263,29 +3257,29 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3295,26 +3289,26 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3323,27 +3317,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3352,27 +3346,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3381,27 +3375,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3410,27 +3404,27 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3439,29 +3433,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3470,29 +3464,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3501,25 +3495,25 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3528,27 +3522,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3557,27 +3551,27 @@
         <v>79</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27" s="40"/>
     </row>
@@ -3586,22 +3580,22 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3613,27 +3607,27 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3642,29 +3636,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -3673,16 +3667,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -3691,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -3700,16 +3694,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -3720,7 +3714,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -3729,16 +3723,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>130</v>
-      </c>
       <c r="D33" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -3747,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -3756,27 +3750,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="D34" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -3785,29 +3779,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -3816,16 +3810,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>140</v>
-      </c>
       <c r="D36" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -3836,7 +3830,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -3845,29 +3839,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -3876,16 +3870,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -3896,7 +3890,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -3905,16 +3899,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -3925,7 +3919,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -3934,22 +3928,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -3958,7 +3952,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -3967,22 +3961,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -3991,7 +3985,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4000,22 +3994,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4027,27 +4021,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4056,27 +4050,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4085,27 +4079,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4114,25 +4108,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="D46" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4143,22 +4137,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4172,22 +4166,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="D48" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4201,22 +4195,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4230,27 +4224,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="D50" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4259,29 +4253,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4290,27 +4284,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4319,27 +4313,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4348,29 +4342,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4379,22 +4373,22 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>197</v>
-      </c>
       <c r="D55" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4406,27 +4400,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>199</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4435,29 +4429,29 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4466,16 +4460,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="D58" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4486,7 +4480,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4495,16 +4489,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>209</v>
-      </c>
       <c r="D59" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4515,7 +4509,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4524,16 +4518,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4544,7 +4538,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4553,29 +4547,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4584,16 +4578,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="D62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4604,7 +4598,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4613,30 +4607,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="D63" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4644,27 +4638,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -4673,25 +4667,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -4702,27 +4696,27 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -4731,29 +4725,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -4762,29 +4756,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -4793,29 +4787,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -4824,16 +4818,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -4842,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -4851,29 +4845,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -4882,29 +4876,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -4913,29 +4907,29 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -4944,29 +4938,29 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="D74" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -4975,7 +4969,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4992,29 +4986,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5023,29 +5017,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5054,30 +5048,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="D78" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5085,29 +5079,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5116,22 +5110,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="D80" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5140,7 +5134,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5149,29 +5143,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5180,7 +5174,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5188,22 +5182,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5212,7 +5206,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5221,29 +5215,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5252,29 +5246,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5283,29 +5277,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="D86" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5314,29 +5308,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5345,29 +5339,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5376,29 +5370,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5407,29 +5401,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5438,29 +5432,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5469,29 +5463,29 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K92" s="34"/>
     </row>
@@ -5500,29 +5494,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5531,16 +5525,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="D94" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>302</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5549,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5558,29 +5552,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5589,29 +5583,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="D96" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5620,29 +5614,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5651,29 +5645,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="D98" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -5682,30 +5676,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="D99" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5713,25 +5707,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C100" s="45" t="s">
         <v>317</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>318</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -5740,25 +5734,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C101" s="13" t="s">
         <v>320</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>321</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5766,29 +5760,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="D102" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -5797,29 +5791,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -5828,25 +5822,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="D104" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J104" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J104" s="13" t="s">
-        <v>330</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -5855,29 +5849,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -5886,16 +5880,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>336</v>
-      </c>
       <c r="D106" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -5906,7 +5900,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -5915,29 +5909,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -5946,16 +5940,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C108" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>341</v>
-      </c>
       <c r="D108" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -5964,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -5973,16 +5967,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="D109" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="13" t="s">
         <v>344</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>345</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -5991,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5999,16 +5993,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C110" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="D110" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6017,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6026,29 +6020,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="D111" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6057,29 +6051,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6088,29 +6082,29 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="D113" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K113" s="34"/>
     </row>
@@ -6119,29 +6113,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6150,29 +6144,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6181,22 +6175,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="D116" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6210,30 +6204,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="D117" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="D117" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>369</v>
-      </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="K117" s="13" t="s">
         <v>370</v>
-      </c>
-      <c r="K117" s="13" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6241,30 +6235,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C118" s="13" t="s">
         <v>372</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>373</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6272,27 +6266,27 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="C119" s="13" t="s">
-        <v>375</v>
-      </c>
       <c r="D119" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6301,29 +6295,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6332,16 +6326,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C121" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C121" s="13" t="s">
-        <v>380</v>
-      </c>
       <c r="D121" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6352,7 +6346,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6361,16 +6355,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C122" s="13" t="s">
         <v>382</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>383</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6381,7 +6375,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6390,29 +6384,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6421,29 +6415,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6452,29 +6446,29 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="D125" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6483,27 +6477,27 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="C126" s="13" t="s">
-        <v>397</v>
-      </c>
       <c r="D126" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6512,29 +6506,29 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="D127" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6543,151 +6537,151 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="D128" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K128" s="34"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B129" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="C129" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>405</v>
-      </c>
       <c r="D129" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B130" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="C130" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B131" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B132" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -6696,29 +6690,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="D139" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="F139" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -6727,29 +6721,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>420</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>421</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -6758,29 +6752,29 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K141" s="39"/>
     </row>
@@ -6789,35 +6783,35 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>426</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>427</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -6825,29 +6819,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="D148" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -6856,29 +6850,29 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="440">
   <si>
     <t>编号</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>①堆</t>
+  </si>
+  <si>
+    <t>数据流的中位数</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-median-from-data-stream/</t>
+  </si>
+  <si>
+    <t>ACX</t>
+  </si>
+  <si>
+    <t>①双堆 ②桶+有序集合</t>
+  </si>
+  <si>
+    <t>有序数组+双指针</t>
   </si>
   <si>
     <t>Z字形变换</t>
@@ -2158,7 +2173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2312,10 +2327,16 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2666,28 +2687,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6636363636364" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="18.6636363636364" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="6" style="51" customWidth="1"/>
-    <col min="2" max="2" width="29.3363636363636" style="51" customWidth="1"/>
-    <col min="3" max="3" width="28.1090909090909" style="51" customWidth="1"/>
-    <col min="4" max="4" width="6.44545454545455" style="51" customWidth="1"/>
-    <col min="5" max="5" width="24.4454545454545" style="51" customWidth="1"/>
-    <col min="6" max="7" width="5.10909090909091" style="51" customWidth="1"/>
-    <col min="8" max="9" width="11.7818181818182" style="51" customWidth="1"/>
-    <col min="10" max="10" width="28.3363636363636" style="51" customWidth="1"/>
-    <col min="11" max="11" width="29.6636363636364" style="51" customWidth="1"/>
-    <col min="12" max="34" width="18.6636363636364" style="51" customWidth="1"/>
-    <col min="35" max="16354" width="28.1090909090909" style="51" customWidth="1"/>
-    <col min="16355" max="16384" width="18.6636363636364" style="51" customWidth="1"/>
+    <col min="1" max="1" width="6" style="52" customWidth="1"/>
+    <col min="2" max="2" width="29.3363636363636" style="52" customWidth="1"/>
+    <col min="3" max="3" width="28.1090909090909" style="52" customWidth="1"/>
+    <col min="4" max="4" width="6.44545454545455" style="52" customWidth="1"/>
+    <col min="5" max="5" width="24.4454545454545" style="52" customWidth="1"/>
+    <col min="6" max="7" width="5.10909090909091" style="52" customWidth="1"/>
+    <col min="8" max="9" width="11.7818181818182" style="52" customWidth="1"/>
+    <col min="10" max="10" width="28.3363636363636" style="52" customWidth="1"/>
+    <col min="11" max="11" width="29.6636363636364" style="52" customWidth="1"/>
+    <col min="12" max="34" width="18.6636363636364" style="52" customWidth="1"/>
+    <col min="35" max="16354" width="28.1090909090909" style="52" customWidth="1"/>
+    <col min="16355" max="16384" width="18.6636363636364" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="49" customFormat="1" spans="1:11">
@@ -2747,10 +2768,10 @@
       <c r="G2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="53">
         <v>44451</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="53">
         <v>44454</v>
       </c>
       <c r="J2" s="50" t="s">
@@ -2779,10 +2800,10 @@
       <c r="G3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="53">
         <v>44451</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="53">
         <v>44454</v>
       </c>
       <c r="J3" s="50" t="s">
@@ -2811,14 +2832,47 @@
       <c r="G4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="53">
         <v>44452</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="53">
         <v>44454</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="5" s="51" customFormat="1" spans="1:11">
+      <c r="A5" s="51">
+        <v>295</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="54">
+        <v>44454</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2828,6 +2882,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="前K个高频单词"/>
     <hyperlink ref="B4" r:id="rId2" display="单线程CPU"/>
+    <hyperlink ref="B5" r:id="rId3" display="数据流的中位数" tooltip="https://leetcode-cn.com/problems/find-median-from-data-stream/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2896,29 +2951,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -2927,29 +2982,29 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K4" s="34"/>
     </row>
@@ -2958,27 +3013,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -2987,30 +3042,30 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3018,27 +3073,27 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3047,30 +3102,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3078,16 +3133,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3098,7 +3153,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3106,29 +3161,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3137,29 +3192,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3168,22 +3223,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3195,29 +3250,29 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3226,29 +3281,29 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3257,29 +3312,29 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3289,26 +3344,26 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3317,27 +3372,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3346,27 +3401,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3375,27 +3430,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3404,27 +3459,27 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3433,29 +3488,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3464,29 +3519,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3495,25 +3550,25 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3522,27 +3577,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3551,27 +3606,27 @@
         <v>79</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K27" s="40"/>
     </row>
@@ -3580,22 +3635,22 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3607,27 +3662,27 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3636,29 +3691,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -3667,16 +3722,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -3685,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -3694,16 +3749,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -3714,7 +3769,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -3723,16 +3778,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -3741,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -3750,27 +3805,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -3779,29 +3834,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -3810,16 +3865,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -3830,7 +3885,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -3839,29 +3894,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -3870,16 +3925,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -3890,7 +3945,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -3899,16 +3954,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -3919,7 +3974,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -3928,22 +3983,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -3952,7 +4007,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -3961,22 +4016,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -3985,7 +4040,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -3994,22 +4049,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4021,27 +4076,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4050,27 +4105,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4079,27 +4134,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4108,25 +4163,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4137,22 +4192,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4166,22 +4221,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4195,22 +4250,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4224,27 +4279,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4253,29 +4308,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4284,27 +4339,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4313,27 +4368,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4342,29 +4397,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4373,22 +4428,22 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4400,27 +4455,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4429,29 +4484,29 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4460,16 +4515,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4480,7 +4535,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4489,16 +4544,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4509,7 +4564,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4518,16 +4573,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4538,7 +4593,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4547,29 +4602,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4578,16 +4633,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4598,7 +4653,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4607,30 +4662,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4638,27 +4693,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -4667,25 +4722,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -4696,27 +4751,27 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -4725,29 +4780,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -4756,29 +4811,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -4787,29 +4842,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -4818,16 +4873,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -4836,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -4845,29 +4900,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -4876,29 +4931,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -4907,29 +4962,29 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -4938,29 +4993,29 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -4969,7 +5024,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4986,29 +5041,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5017,29 +5072,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5048,30 +5103,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5079,29 +5134,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5110,22 +5165,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5134,7 +5189,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5143,29 +5198,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5174,7 +5229,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5182,22 +5237,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5206,7 +5261,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5215,29 +5270,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5246,29 +5301,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5277,29 +5332,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5308,29 +5363,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5339,29 +5394,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5370,29 +5425,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5401,29 +5456,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5432,29 +5487,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5463,29 +5518,29 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K92" s="34"/>
     </row>
@@ -5494,29 +5549,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5525,16 +5580,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5543,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5552,29 +5607,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5583,29 +5638,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5614,29 +5669,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5645,29 +5700,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -5676,30 +5731,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5707,25 +5762,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -5734,25 +5789,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5760,29 +5815,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -5791,29 +5846,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -5822,25 +5877,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -5849,29 +5904,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -5880,16 +5935,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D106" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -5900,7 +5955,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -5909,29 +5964,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -5940,16 +5995,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -5958,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -5967,16 +6022,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -5985,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5993,16 +6048,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6011,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6020,29 +6075,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6051,29 +6106,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6082,29 +6137,29 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K113" s="34"/>
     </row>
@@ -6113,29 +6168,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6144,29 +6199,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6175,22 +6230,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6204,30 +6259,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6235,30 +6290,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6266,27 +6321,27 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6295,29 +6350,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6326,16 +6381,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6346,7 +6401,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6355,16 +6410,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6375,7 +6430,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6384,29 +6439,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6415,29 +6470,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6446,29 +6501,29 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6477,27 +6532,27 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6506,29 +6561,29 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6537,151 +6592,151 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D128" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K128" s="34"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -6690,29 +6745,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -6721,29 +6776,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -6752,29 +6807,29 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K141" s="39"/>
     </row>
@@ -6783,35 +6838,35 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -6819,29 +6874,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -6850,29 +6905,29 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13130"/>
+    <workbookView windowWidth="22100" windowHeight="9890"/>
   </bookViews>
   <sheets>
     <sheet name="刷题清单" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="444">
   <si>
     <t>编号</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>有序数组+双指针</t>
+  </si>
+  <si>
+    <t>滑动窗口中位数</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sliding-window-median/</t>
+  </si>
+  <si>
+    <t>①双堆</t>
+  </si>
+  <si>
+    <t>延迟删除</t>
   </si>
   <si>
     <t>Z字形变换</t>
@@ -1408,7 +1420,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,6 +1500,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212835"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2031,10 +2049,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2043,16 +2061,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2061,119 +2079,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2338,6 +2356,9 @@
     </xf>
     <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2687,15 +2708,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6636363636364" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="18.6636363636364" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="6" style="52" customWidth="1"/>
     <col min="2" max="2" width="29.3363636363636" style="52" customWidth="1"/>
@@ -2875,6 +2896,42 @@
         <v>31</v>
       </c>
     </row>
+    <row r="6" s="51" customFormat="1" spans="1:11">
+      <c r="A6" s="51">
+        <v>480</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="54">
+        <v>44455</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="55"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K4">
     <extLst/>
@@ -2883,6 +2940,7 @@
     <hyperlink ref="B3" r:id="rId1" display="前K个高频单词"/>
     <hyperlink ref="B4" r:id="rId2" display="单线程CPU"/>
     <hyperlink ref="B5" r:id="rId3" display="数据流的中位数" tooltip="https://leetcode-cn.com/problems/find-median-from-data-stream/"/>
+    <hyperlink ref="B6" r:id="rId4" display="滑动窗口中位数" tooltip="https://leetcode-cn.com/problems/sliding-window-median/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2951,29 +3009,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -2982,29 +3040,29 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K4" s="34"/>
     </row>
@@ -3013,27 +3071,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3042,30 +3100,30 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3073,27 +3131,27 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3102,30 +3160,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3133,16 +3191,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3153,7 +3211,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3161,29 +3219,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3192,29 +3250,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3223,22 +3281,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3250,29 +3308,29 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3281,29 +3339,29 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3312,29 +3370,29 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3344,26 +3402,26 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3372,27 +3430,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3401,27 +3459,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3430,27 +3488,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3459,27 +3517,27 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3488,29 +3546,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3519,29 +3577,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3550,25 +3608,25 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3577,27 +3635,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3606,27 +3664,27 @@
         <v>79</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K27" s="40"/>
     </row>
@@ -3635,22 +3693,22 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3662,27 +3720,27 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3691,29 +3749,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -3722,16 +3780,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -3740,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -3749,16 +3807,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -3769,7 +3827,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -3778,16 +3836,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -3796,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -3805,27 +3863,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -3834,29 +3892,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -3865,16 +3923,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -3885,7 +3943,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -3894,29 +3952,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -3925,16 +3983,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -3945,7 +4003,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -3954,16 +4012,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -3974,7 +4032,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -3983,22 +4041,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4007,7 +4065,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4016,22 +4074,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4040,7 +4098,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4049,22 +4107,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4076,27 +4134,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4105,27 +4163,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4134,27 +4192,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4163,25 +4221,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4192,22 +4250,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4221,22 +4279,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4250,22 +4308,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4279,27 +4337,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4308,29 +4366,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4339,27 +4397,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4368,27 +4426,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4397,29 +4455,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4428,22 +4486,22 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4455,27 +4513,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4484,29 +4542,29 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4515,16 +4573,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4535,7 +4593,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4544,16 +4602,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4564,7 +4622,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4573,16 +4631,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4593,7 +4651,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4602,29 +4660,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4633,16 +4691,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4653,7 +4711,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4662,30 +4720,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4693,27 +4751,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -4722,25 +4780,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -4751,27 +4809,27 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -4780,29 +4838,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -4811,29 +4869,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -4842,29 +4900,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -4873,16 +4931,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -4891,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -4900,29 +4958,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -4931,29 +4989,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -4962,29 +5020,29 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -4993,29 +5051,29 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5024,7 +5082,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5041,29 +5099,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5072,29 +5130,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5103,30 +5161,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5134,29 +5192,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5165,22 +5223,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5189,7 +5247,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5198,29 +5256,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5229,7 +5287,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5237,22 +5295,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5261,7 +5319,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5270,29 +5328,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5301,29 +5359,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5332,29 +5390,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5363,29 +5421,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5394,29 +5452,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5425,29 +5483,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5456,29 +5514,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5487,29 +5545,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5518,29 +5576,29 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K92" s="34"/>
     </row>
@@ -5549,29 +5607,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5580,16 +5638,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5598,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5607,29 +5665,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5638,29 +5696,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5669,29 +5727,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5700,29 +5758,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -5731,30 +5789,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5762,25 +5820,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -5789,25 +5847,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5815,29 +5873,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -5846,29 +5904,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -5877,25 +5935,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -5904,29 +5962,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -5935,16 +5993,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -5955,7 +6013,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -5964,29 +6022,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -5995,16 +6053,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6013,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6022,16 +6080,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6040,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6048,16 +6106,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6066,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6075,29 +6133,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6106,29 +6164,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6137,29 +6195,29 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K113" s="34"/>
     </row>
@@ -6168,29 +6226,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6199,29 +6257,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6230,22 +6288,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6259,30 +6317,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6290,30 +6348,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6321,27 +6379,27 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6350,29 +6408,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6381,16 +6439,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6401,7 +6459,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6410,16 +6468,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6430,7 +6488,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6439,29 +6497,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6470,29 +6528,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6501,29 +6559,29 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6532,27 +6590,27 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6561,29 +6619,29 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6592,151 +6650,151 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K128" s="34"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -6745,29 +6803,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D139" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -6776,29 +6834,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -6807,29 +6865,29 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K141" s="39"/>
     </row>
@@ -6838,35 +6896,35 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -6874,29 +6932,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D148" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -6905,29 +6963,29 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22100" windowHeight="9890"/>
+    <workbookView windowWidth="27870" windowHeight="13130"/>
   </bookViews>
   <sheets>
     <sheet name="刷题清单" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="444">
   <si>
     <t>编号</t>
   </si>
@@ -129,6 +129,18 @@
     <t>延迟删除</t>
   </si>
   <si>
+    <t>单词搜索</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/word-search/</t>
+  </si>
+  <si>
+    <t>回溯</t>
+  </si>
+  <si>
+    <t>①回溯</t>
+  </si>
+  <si>
     <t>Z字形变换</t>
   </si>
   <si>
@@ -207,15 +219,9 @@
     <t>https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/</t>
   </si>
   <si>
-    <t>回溯</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>①回溯</t>
-  </si>
-  <si>
     <t>删除排序数组中的重复项</t>
   </si>
   <si>
@@ -376,12 +382,6 @@
   </si>
   <si>
     <t>①两轮二分查找 ②一轮二分查找 ③缩减空间</t>
-  </si>
-  <si>
-    <t>单词搜索</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/word-search/</t>
   </si>
   <si>
     <t>删除排序链表中的重复元素 II</t>
@@ -1420,7 +1420,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1500,12 +1500,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF212835"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2049,10 +2043,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2061,16 +2055,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2079,119 +2073,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2356,9 +2350,6 @@
     </xf>
     <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2713,7 +2704,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6636363636364" defaultRowHeight="14" outlineLevelRow="6"/>
@@ -2929,8 +2920,35 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="55"/>
+    <row r="7" s="51" customFormat="1" spans="1:10">
+      <c r="A7" s="51">
+        <v>79</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="54">
+        <v>44455</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="51" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K4">
@@ -2941,6 +2959,7 @@
     <hyperlink ref="B4" r:id="rId2" display="单线程CPU"/>
     <hyperlink ref="B5" r:id="rId3" display="数据流的中位数" tooltip="https://leetcode-cn.com/problems/find-median-from-data-stream/"/>
     <hyperlink ref="B6" r:id="rId4" display="滑动窗口中位数" tooltip="https://leetcode-cn.com/problems/sliding-window-median/"/>
+    <hyperlink ref="B7" r:id="rId5" display="单词搜索" tooltip="https://leetcode-cn.com/problems/word-search/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3009,29 +3028,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3040,29 +3059,29 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K4" s="34"/>
     </row>
@@ -3071,27 +3090,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3100,30 +3119,30 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3131,27 +3150,27 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3160,30 +3179,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3191,16 +3210,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3211,7 +3230,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3219,29 +3238,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3250,29 +3269,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3281,22 +3300,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3308,29 +3327,29 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3339,29 +3358,29 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3370,29 +3389,29 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3402,26 +3421,26 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3430,27 +3449,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3459,27 +3478,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3488,27 +3507,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3517,27 +3536,27 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3546,29 +3565,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3577,29 +3596,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3608,25 +3627,25 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3635,27 +3654,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3664,27 +3683,27 @@
         <v>79</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="K27" s="40"/>
     </row>
@@ -3702,13 +3721,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3726,16 +3745,16 @@
         <v>124</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3758,7 +3777,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
@@ -3842,7 +3861,7 @@
         <v>138</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>132</v>
@@ -3869,16 +3888,16 @@
         <v>140</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -3898,7 +3917,7 @@
         <v>143</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>144</v>
@@ -3929,10 +3948,10 @@
         <v>148</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -3967,7 +3986,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
@@ -4021,7 +4040,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4047,7 +4066,7 @@
         <v>162</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>163</v>
@@ -4122,7 +4141,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4172,13 +4191,13 @@
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -4201,13 +4220,13 @@
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -4256,7 +4275,7 @@
         <v>184</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>185</v>
@@ -4265,7 +4284,7 @@
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4285,7 +4304,7 @@
         <v>187</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>185</v>
@@ -4294,7 +4313,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4323,7 +4342,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4343,7 +4362,7 @@
         <v>191</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>163</v>
@@ -4352,7 +4371,7 @@
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -4372,7 +4391,7 @@
         <v>194</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>163</v>
@@ -4406,7 +4425,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
@@ -4417,7 +4436,7 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4441,7 +4460,7 @@
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -4470,7 +4489,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
@@ -4492,16 +4511,16 @@
         <v>205</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4528,7 +4547,7 @@
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -4551,20 +4570,20 @@
         <v>20</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4579,7 +4598,7 @@
         <v>213</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>214</v>
@@ -4608,7 +4627,7 @@
         <v>217</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>132</v>
@@ -4666,7 +4685,7 @@
         <v>223</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>163</v>
@@ -4697,7 +4716,7 @@
         <v>226</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>227</v>
@@ -4726,7 +4745,7 @@
         <v>229</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>132</v>
@@ -4735,7 +4754,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -4743,7 +4762,7 @@
         <v>230</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4760,13 +4779,13 @@
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -4818,13 +4837,13 @@
         <v>20</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
@@ -4844,7 +4863,7 @@
         <v>239</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>240</v>
@@ -4940,7 +4959,7 @@
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -4964,7 +4983,7 @@
         <v>250</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>251</v>
@@ -5004,7 +5023,7 @@
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
@@ -5026,23 +5045,23 @@
         <v>258</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5057,23 +5076,23 @@
         <v>260</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5114,7 +5133,7 @@
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
@@ -5167,7 +5186,7 @@
         <v>266</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>163</v>
@@ -5176,7 +5195,7 @@
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
@@ -5198,7 +5217,7 @@
         <v>269</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>270</v>
@@ -5229,7 +5248,7 @@
         <v>273</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>163</v>
@@ -5262,7 +5281,7 @@
         <v>276</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>277</v>
@@ -5271,7 +5290,7 @@
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
@@ -5365,7 +5384,7 @@
         <v>286</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>182</v>
@@ -5396,7 +5415,7 @@
         <v>288</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>182</v>
@@ -5554,7 +5573,7 @@
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
@@ -5585,7 +5604,7 @@
         <v>20</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>15</v>
@@ -5598,7 +5617,7 @@
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="3" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="K92" s="34"/>
     </row>
@@ -5644,7 +5663,7 @@
         <v>309</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>310</v>
@@ -5680,7 +5699,7 @@
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
@@ -5702,7 +5721,7 @@
         <v>317</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>310</v>
@@ -5733,7 +5752,7 @@
         <v>317</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>132</v>
@@ -5764,7 +5783,7 @@
         <v>321</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>132</v>
@@ -5795,7 +5814,7 @@
         <v>323</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>132</v>
@@ -5804,7 +5823,7 @@
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -5812,7 +5831,7 @@
         <v>324</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5835,7 +5854,7 @@
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J100" s="13" t="s">
         <v>327</v>
@@ -5862,7 +5881,7 @@
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J101" s="13" t="s">
         <v>330</v>
@@ -5879,7 +5898,7 @@
         <v>332</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>277</v>
@@ -5888,7 +5907,7 @@
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
@@ -5919,7 +5938,7 @@
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
@@ -5941,7 +5960,7 @@
         <v>337</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>208</v>
@@ -5950,7 +5969,7 @@
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J104" s="13" t="s">
         <v>338</v>
@@ -5977,7 +5996,7 @@
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
@@ -5999,10 +6018,10 @@
         <v>344</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6037,7 +6056,7 @@
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
@@ -6059,10 +6078,10 @@
         <v>349</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6086,7 +6105,7 @@
         <v>352</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>353</v>
@@ -6112,7 +6131,7 @@
         <v>356</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E110" s="13" t="s">
         <v>353</v>
@@ -6139,7 +6158,7 @@
         <v>359</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>132</v>
@@ -6148,7 +6167,7 @@
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
@@ -6173,13 +6192,13 @@
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
@@ -6201,23 +6220,23 @@
         <v>365</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K113" s="34"/>
     </row>
@@ -6235,13 +6254,13 @@
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
@@ -6266,13 +6285,13 @@
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
@@ -6294,7 +6313,7 @@
         <v>373</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>374</v>
@@ -6323,7 +6342,7 @@
         <v>376</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E117" s="13" t="s">
         <v>377</v>
@@ -6332,7 +6351,7 @@
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
@@ -6363,7 +6382,7 @@
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
@@ -6385,21 +6404,21 @@
         <v>383</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6423,7 +6442,7 @@
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
@@ -6445,7 +6464,7 @@
         <v>388</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E121" s="13" t="s">
         <v>227</v>
@@ -6565,7 +6584,7 @@
         <v>402</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>163</v>
@@ -6574,7 +6593,7 @@
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
@@ -6596,21 +6615,21 @@
         <v>405</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6625,7 +6644,7 @@
         <v>407</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>163</v>
@@ -6634,7 +6653,7 @@
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
@@ -6656,10 +6675,10 @@
         <v>410</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
@@ -6672,7 +6691,7 @@
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K128" s="34"/>
     </row>
@@ -6687,16 +6706,16 @@
         <v>413</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
@@ -6725,7 +6744,7 @@
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
@@ -6756,7 +6775,7 @@
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
@@ -6787,7 +6806,7 @@
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
@@ -6809,7 +6828,7 @@
         <v>425</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>426</v>
@@ -6818,7 +6837,7 @@
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
@@ -6849,7 +6868,7 @@
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
@@ -6874,20 +6893,20 @@
         <v>20</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="K141" s="39"/>
     </row>
@@ -6905,13 +6924,13 @@
         <v>20</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
@@ -6938,7 +6957,7 @@
         <v>439</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>314</v>
@@ -6947,7 +6966,7 @@
         <v>15</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
@@ -6972,13 +6991,13 @@
         <v>20</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>

--- a/README.xlsx
+++ b/README.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13130"/>
+    <workbookView windowWidth="27870" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="刷题清单" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">刷题清单!$A$1:$K$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">刷题清单!$A$1:$K$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$K$133</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="446">
   <si>
     <t>编号</t>
   </si>
@@ -141,6 +141,18 @@
     <t>①回溯</t>
   </si>
   <si>
+    <t>有效的数独</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-sudoku/</t>
+  </si>
+  <si>
+    <t>编程练习</t>
+  </si>
+  <si>
+    <t>①编程练习</t>
+  </si>
+  <si>
     <t>Z字形变换</t>
   </si>
   <si>
@@ -195,9 +207,6 @@
     <t>https://leetcode-cn.com/problems/integer-to-roman/</t>
   </si>
   <si>
-    <t>编程练习</t>
-  </si>
-  <si>
     <t>①贪心 ②编码表</t>
   </si>
   <si>
@@ -208,9 +217,6 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/roman-to-integer/</t>
-  </si>
-  <si>
-    <t>①编程练习</t>
   </si>
   <si>
     <t>电话号码的字母组合</t>
@@ -1415,12 +1421,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,27 +1504,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1532,22 +1546,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1560,9 +1559,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1576,16 +1582,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1600,18 +1599,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1624,15 +1615,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,7 +1653,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1729,7 +1728,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,25 +1824,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,73 +1848,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,67 +1890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,16 +1919,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1970,10 +1951,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2003,10 +1982,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2020,21 +2016,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2043,10 +2024,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2055,16 +2036,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2073,115 +2054,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2336,19 +2317,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2699,28 +2680,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6636363636364" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" style="52" customWidth="1"/>
-    <col min="2" max="2" width="29.3363636363636" style="52" customWidth="1"/>
-    <col min="3" max="3" width="28.1090909090909" style="52" customWidth="1"/>
-    <col min="4" max="4" width="6.44545454545455" style="52" customWidth="1"/>
-    <col min="5" max="5" width="24.4454545454545" style="52" customWidth="1"/>
-    <col min="6" max="7" width="5.10909090909091" style="52" customWidth="1"/>
-    <col min="8" max="9" width="11.7818181818182" style="52" customWidth="1"/>
-    <col min="10" max="10" width="28.3363636363636" style="52" customWidth="1"/>
-    <col min="11" max="11" width="29.6636363636364" style="52" customWidth="1"/>
-    <col min="12" max="34" width="18.6636363636364" style="52" customWidth="1"/>
-    <col min="35" max="16354" width="28.1090909090909" style="52" customWidth="1"/>
-    <col min="16355" max="16384" width="18.6636363636364" style="52" customWidth="1"/>
+    <col min="2" max="2" width="29.3333333333333" style="52" customWidth="1"/>
+    <col min="3" max="3" width="28.1083333333333" style="52" customWidth="1"/>
+    <col min="4" max="4" width="6.44166666666667" style="52" customWidth="1"/>
+    <col min="5" max="5" width="24.4416666666667" style="52" customWidth="1"/>
+    <col min="6" max="7" width="5.10833333333333" style="52" customWidth="1"/>
+    <col min="8" max="9" width="11.7833333333333" style="52" customWidth="1"/>
+    <col min="10" max="10" width="28.3333333333333" style="52" customWidth="1"/>
+    <col min="11" max="11" width="29.6666666666667" style="52" customWidth="1"/>
+    <col min="12" max="34" width="18.6666666666667" style="52" customWidth="1"/>
+    <col min="35" max="16354" width="28.1083333333333" style="52" customWidth="1"/>
+    <col min="16355" max="16384" width="18.6666666666667" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="49" customFormat="1" spans="1:11">
@@ -2950,8 +2931,38 @@
         <v>39</v>
       </c>
     </row>
+    <row r="22" s="51" customFormat="1" spans="1:10">
+      <c r="A22" s="51">
+        <v>36</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="54">
+        <v>44456</v>
+      </c>
+      <c r="I22" s="54"/>
+      <c r="J22" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K4">
+  <autoFilter ref="A1:K7">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -2960,6 +2971,7 @@
     <hyperlink ref="B5" r:id="rId3" display="数据流的中位数" tooltip="https://leetcode-cn.com/problems/find-median-from-data-stream/"/>
     <hyperlink ref="B6" r:id="rId4" display="滑动窗口中位数" tooltip="https://leetcode-cn.com/problems/sliding-window-median/"/>
     <hyperlink ref="B7" r:id="rId5" display="单词搜索" tooltip="https://leetcode-cn.com/problems/word-search/"/>
+    <hyperlink ref="B22" r:id="rId6" display="有效的数独" tooltip="https://leetcode-cn.com/problems/valid-sudoku/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2978,20 +2990,20 @@
       <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6636363636364" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.33636363636364" style="13" customWidth="1"/>
-    <col min="2" max="2" width="32.4454545454545" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1090909090909" style="13" customWidth="1"/>
-    <col min="4" max="4" width="6.44545454545455" style="13" customWidth="1"/>
-    <col min="5" max="5" width="24.4454545454545" style="13" customWidth="1"/>
-    <col min="6" max="7" width="5.10909090909091" style="13" customWidth="1"/>
-    <col min="8" max="9" width="11.7818181818182" style="13" customWidth="1"/>
-    <col min="10" max="10" width="41.1090909090909" style="13" customWidth="1"/>
-    <col min="11" max="11" width="31.7818181818182" style="13" customWidth="1"/>
-    <col min="12" max="34" width="18.6636363636364" style="13" customWidth="1"/>
-    <col min="35" max="16354" width="28.1090909090909" style="13" customWidth="1"/>
-    <col min="16355" max="16384" width="18.6636363636364" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.33333333333333" style="13" customWidth="1"/>
+    <col min="2" max="2" width="32.4416666666667" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.1083333333333" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.44166666666667" style="13" customWidth="1"/>
+    <col min="5" max="5" width="24.4416666666667" style="13" customWidth="1"/>
+    <col min="6" max="7" width="5.10833333333333" style="13" customWidth="1"/>
+    <col min="8" max="9" width="11.7833333333333" style="13" customWidth="1"/>
+    <col min="10" max="10" width="41.1083333333333" style="13" customWidth="1"/>
+    <col min="11" max="11" width="31.7833333333333" style="13" customWidth="1"/>
+    <col min="12" max="34" width="18.6666666666667" style="13" customWidth="1"/>
+    <col min="35" max="16354" width="28.1083333333333" style="13" customWidth="1"/>
+    <col min="16355" max="16384" width="18.6666666666667" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3028,29 +3040,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3059,29 +3071,29 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K4" s="34"/>
     </row>
@@ -3090,27 +3102,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3119,30 +3131,30 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3150,27 +3162,27 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3179,10 +3191,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3194,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3202,7 +3214,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3210,16 +3222,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3230,7 +3242,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3238,29 +3250,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3269,29 +3281,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3300,22 +3312,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3327,10 +3339,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3342,14 +3354,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3358,10 +3370,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3373,14 +3385,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3389,10 +3401,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3404,14 +3416,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3421,7 +3433,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3433,14 +3445,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3449,27 +3461,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3478,27 +3490,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3507,27 +3519,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3536,27 +3548,27 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3565,29 +3577,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3596,29 +3608,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3627,25 +3639,25 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3654,27 +3666,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3698,7 +3710,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3712,22 +3724,22 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3739,27 +3751,27 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3768,29 +3780,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -3799,16 +3811,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -3817,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -3826,16 +3838,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -3846,7 +3858,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -3855,16 +3867,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -3873,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -3882,27 +3894,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -3911,29 +3923,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -3942,16 +3954,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -3962,7 +3974,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -3971,29 +3983,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4002,16 +4014,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4022,7 +4034,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4031,16 +4043,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4051,7 +4063,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4060,22 +4072,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4084,7 +4096,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4093,22 +4105,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4117,7 +4129,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4126,22 +4138,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4153,27 +4165,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4182,27 +4194,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4211,27 +4223,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4240,25 +4252,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4269,22 +4281,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4298,22 +4310,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4327,22 +4339,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4356,27 +4368,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4385,29 +4397,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4416,27 +4428,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4445,27 +4457,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4474,29 +4486,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4505,22 +4517,22 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4532,27 +4544,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4561,10 +4573,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4576,14 +4588,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4592,16 +4604,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4612,7 +4624,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4621,16 +4633,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4641,7 +4653,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4650,16 +4662,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4670,7 +4682,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4679,29 +4691,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4710,16 +4722,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4730,7 +4742,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4739,30 +4751,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4770,27 +4782,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -4799,25 +4811,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -4828,27 +4840,27 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -4857,29 +4869,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -4888,29 +4900,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -4919,29 +4931,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -4950,16 +4962,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -4968,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -4977,29 +4989,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5008,29 +5020,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5039,29 +5051,29 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5070,29 +5082,29 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5101,7 +5113,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5118,29 +5130,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5149,29 +5161,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5180,30 +5192,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5211,29 +5223,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5242,22 +5254,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5266,7 +5278,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5275,29 +5287,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5306,7 +5318,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5314,22 +5326,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5338,7 +5350,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5347,29 +5359,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5378,29 +5390,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5409,29 +5421,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5440,29 +5452,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5471,29 +5483,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5502,29 +5514,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5533,60 +5545,60 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K90" s="34"/>
     </row>
-    <row r="91" s="11" customFormat="1" ht="28" spans="1:11">
+    <row r="91" s="11" customFormat="1" spans="1:11">
       <c r="A91" s="3">
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5595,10 +5607,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5610,7 +5622,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5626,29 +5638,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5657,16 +5669,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5675,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5684,29 +5696,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5715,29 +5727,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5746,29 +5758,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="D97" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5777,29 +5789,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -5808,30 +5820,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5839,25 +5851,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -5866,25 +5878,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5892,29 +5904,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -5923,29 +5935,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -5954,25 +5966,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -5981,29 +5993,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6012,16 +6024,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6032,7 +6044,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6041,29 +6053,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6072,16 +6084,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6090,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6099,16 +6111,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6117,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6125,16 +6137,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E110" s="13" t="s">
         <v>355</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>353</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6143,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6152,29 +6164,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6183,29 +6195,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6214,29 +6226,29 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K113" s="34"/>
     </row>
@@ -6245,29 +6257,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6276,29 +6288,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6307,22 +6319,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6336,30 +6348,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6367,30 +6379,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6398,27 +6410,27 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6427,29 +6439,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6458,16 +6470,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6478,7 +6490,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6487,16 +6499,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6507,7 +6519,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6516,60 +6528,60 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K123" s="34"/>
     </row>
-    <row r="124" ht="28" spans="1:11">
+    <row r="124" spans="1:11">
       <c r="A124" s="3">
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6578,29 +6590,29 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6609,27 +6621,27 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6638,29 +6650,29 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6669,151 +6681,151 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K128" s="34"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -6822,60 +6834,60 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D139" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K139" s="39"/>
     </row>
-    <row r="140" s="12" customFormat="1" ht="17" spans="1:11">
+    <row r="140" s="12" customFormat="1" ht="15.75" spans="1:11">
       <c r="A140" s="12">
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -6884,10 +6896,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -6899,7 +6911,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -6915,10 +6927,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -6930,20 +6942,20 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -6951,29 +6963,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D148" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -6982,29 +6994,29 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="447">
   <si>
     <t>编号</t>
   </si>
@@ -150,73 +150,76 @@
     <t>编程练习</t>
   </si>
   <si>
+    <t>①数组计数 ②哈希表 ③位运算</t>
+  </si>
+  <si>
+    <t>Z字形变换</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/zigzag-conversion/</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>ACZ</t>
+  </si>
+  <si>
+    <t>①模拟打印 ②逐行打印</t>
+  </si>
+  <si>
+    <t>整数反转</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-integer/</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>回文翻转</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>①模拟</t>
+  </si>
+  <si>
+    <t>盛最多水的容器</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>贪心、双指针</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>①暴力搜索 ②双指针</t>
+  </si>
+  <si>
+    <t>整数转罗马数字</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/integer-to-roman/</t>
+  </si>
+  <si>
+    <t>①贪心 ②编码表</t>
+  </si>
+  <si>
+    <t>暂缺负雪明烛</t>
+  </si>
+  <si>
+    <t>罗马数字转整数</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/roman-to-integer/</t>
+  </si>
+  <si>
     <t>①编程练习</t>
-  </si>
-  <si>
-    <t>Z字形变换</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/zigzag-conversion/</t>
-  </si>
-  <si>
-    <t>字符串</t>
-  </si>
-  <si>
-    <t>ACZ</t>
-  </si>
-  <si>
-    <t>①模拟打印 ②逐行打印</t>
-  </si>
-  <si>
-    <t>整数反转</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/reverse-integer/</t>
-  </si>
-  <si>
-    <t>简单</t>
-  </si>
-  <si>
-    <t>回文翻转</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>①模拟</t>
-  </si>
-  <si>
-    <t>盛最多水的容器</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/container-with-most-water/</t>
-  </si>
-  <si>
-    <t>贪心、双指针</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>①暴力搜索 ②双指针</t>
-  </si>
-  <si>
-    <t>整数转罗马数字</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/integer-to-roman/</t>
-  </si>
-  <si>
-    <t>①贪心 ②编码表</t>
-  </si>
-  <si>
-    <t>暂缺负雪明烛</t>
-  </si>
-  <si>
-    <t>罗马数字转整数</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/roman-to-integer/</t>
   </si>
   <si>
     <t>电话号码的字母组合</t>
@@ -2685,7 +2688,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3182,7 +3185,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3191,10 +3194,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3206,7 +3209,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3222,16 +3225,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3242,7 +3245,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3250,29 +3253,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3281,10 +3284,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>51</v>
@@ -3296,14 +3299,14 @@
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3312,22 +3315,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3339,10 +3342,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3361,7 +3364,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3370,10 +3373,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3385,14 +3388,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3401,10 +3404,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3416,14 +3419,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3433,7 +3436,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3445,14 +3448,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3461,27 +3464,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3490,27 +3493,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3519,27 +3522,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3548,16 +3551,16 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>15</v>
@@ -3568,7 +3571,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3577,16 +3580,16 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
@@ -3599,7 +3602,7 @@
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3608,29 +3611,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3639,10 +3642,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3654,10 +3657,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3666,27 +3669,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3710,7 +3713,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3724,22 +3727,22 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3751,27 +3754,27 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3780,29 +3783,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -3811,16 +3814,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -3829,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -3838,16 +3841,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -3858,7 +3861,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -3867,16 +3870,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -3885,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -3894,27 +3897,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -3923,29 +3926,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -3954,10 +3957,10 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>51</v>
@@ -3974,7 +3977,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -3983,29 +3986,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4014,16 +4017,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4034,7 +4037,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4043,16 +4046,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4063,7 +4066,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4072,22 +4075,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4096,7 +4099,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4105,22 +4108,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4129,7 +4132,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4138,22 +4141,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4165,27 +4168,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4194,16 +4197,16 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
@@ -4214,7 +4217,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4223,16 +4226,16 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
@@ -4243,7 +4246,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4252,25 +4255,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4281,22 +4284,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4310,22 +4313,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4339,22 +4342,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4368,27 +4371,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4397,29 +4400,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4428,27 +4431,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4457,27 +4460,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4486,29 +4489,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4517,22 +4520,22 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4544,27 +4547,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4573,10 +4576,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4588,14 +4591,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4604,16 +4607,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4624,7 +4627,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4633,16 +4636,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4653,7 +4656,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4662,16 +4665,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4682,7 +4685,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4691,29 +4694,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4722,16 +4725,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4742,7 +4745,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4751,27 +4754,27 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K63" s="36" t="s">
         <v>63</v>
@@ -4782,27 +4785,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -4811,25 +4814,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -4840,10 +4843,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -4855,12 +4858,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -4869,29 +4872,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -4900,29 +4903,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -4931,29 +4934,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -4962,16 +4965,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -4980,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -4989,29 +4992,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5020,29 +5023,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5051,10 +5054,10 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>51</v>
@@ -5066,14 +5069,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5082,10 +5085,10 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>51</v>
@@ -5097,14 +5100,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5113,7 +5116,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5130,29 +5133,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5161,29 +5164,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5192,30 +5195,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5223,29 +5226,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5254,22 +5257,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5278,7 +5281,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5287,29 +5290,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5318,7 +5321,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5326,22 +5329,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5350,7 +5353,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5359,29 +5362,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5390,29 +5393,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5421,29 +5424,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5452,29 +5455,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5483,29 +5486,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5514,29 +5517,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5545,29 +5548,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5576,10 +5579,10 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
@@ -5591,14 +5594,14 @@
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5607,10 +5610,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5622,7 +5625,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5638,29 +5641,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5669,16 +5672,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5687,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5696,16 +5699,16 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
@@ -5718,7 +5721,7 @@
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5727,29 +5730,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5758,29 +5761,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5789,29 +5792,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -5820,27 +5823,27 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K99" s="36" t="s">
         <v>63</v>
@@ -5851,25 +5854,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -5878,25 +5881,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5904,16 +5907,16 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
@@ -5926,7 +5929,7 @@
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -5935,29 +5938,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -5966,25 +5969,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -5993,29 +5996,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6024,10 +6027,10 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>51</v>
@@ -6044,7 +6047,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6053,29 +6056,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6084,16 +6087,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6102,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6111,16 +6114,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6129,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6137,16 +6140,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6155,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6164,16 +6167,16 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
@@ -6186,7 +6189,7 @@
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6195,16 +6198,16 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
@@ -6217,7 +6220,7 @@
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6226,10 +6229,10 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>51</v>
@@ -6257,16 +6260,16 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
@@ -6279,7 +6282,7 @@
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6288,29 +6291,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6319,22 +6322,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6348,30 +6351,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6379,30 +6382,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6410,10 +6413,10 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>51</v>
@@ -6425,12 +6428,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6439,29 +6442,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6470,16 +6473,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6490,7 +6493,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6499,16 +6502,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6519,7 +6522,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6528,29 +6531,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6559,29 +6562,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6590,16 +6593,16 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
@@ -6612,7 +6615,7 @@
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6621,10 +6624,10 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>51</v>
@@ -6636,12 +6639,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6650,16 +6653,16 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
@@ -6672,7 +6675,7 @@
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6681,10 +6684,10 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>51</v>
@@ -6696,7 +6699,7 @@
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
@@ -6709,19 +6712,19 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>15</v>
@@ -6732,100 +6735,100 @@
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -6834,16 +6837,16 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>15</v>
@@ -6856,7 +6859,7 @@
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -6865,16 +6868,16 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
@@ -6887,7 +6890,7 @@
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -6896,10 +6899,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -6927,10 +6930,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -6949,13 +6952,13 @@
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -6963,16 +6966,16 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
@@ -6985,7 +6988,7 @@
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -6994,16 +6997,16 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>15</v>
@@ -7016,7 +7019,7 @@
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="451">
   <si>
     <t>编号</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>①数组计数 ②哈希表 ③位运算</t>
+  </si>
+  <si>
+    <t>解数独</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sudoku-solver/</t>
+  </si>
+  <si>
+    <t>①回溯 ②回溯</t>
+  </si>
+  <si>
+    <t>时间复杂度</t>
   </si>
   <si>
     <t>Z字形变换</t>
@@ -1424,9 +1436,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -1511,16 +1523,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1535,21 +1547,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1557,13 +1555,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1585,9 +1576,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1601,16 +1598,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1629,14 +1649,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1731,7 +1743,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,145 +1899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,17 +1934,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1948,15 +1969,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1985,16 +1997,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2027,10 +2039,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2039,16 +2051,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2057,115 +2069,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2683,12 +2695,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -2964,6 +2976,39 @@
         <v>43</v>
       </c>
     </row>
+    <row r="23" s="51" customFormat="1" spans="1:11">
+      <c r="A23" s="51">
+        <v>37</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="54">
+        <v>44456</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="51" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K7">
     <extLst/>
@@ -2975,6 +3020,7 @@
     <hyperlink ref="B6" r:id="rId4" display="滑动窗口中位数" tooltip="https://leetcode-cn.com/problems/sliding-window-median/"/>
     <hyperlink ref="B7" r:id="rId5" display="单词搜索" tooltip="https://leetcode-cn.com/problems/word-search/"/>
     <hyperlink ref="B22" r:id="rId6" display="有效的数独" tooltip="https://leetcode-cn.com/problems/valid-sudoku/"/>
+    <hyperlink ref="B23" r:id="rId7" display="解数独" tooltip="https://leetcode-cn.com/problems/sudoku-solver/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3043,29 +3089,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3074,29 +3120,29 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K4" s="34"/>
     </row>
@@ -3105,27 +3151,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3134,10 +3180,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3149,15 +3195,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3165,13 +3211,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>42</v>
@@ -3180,12 +3226,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3194,10 +3240,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3209,7 +3255,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3217,7 +3263,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3225,16 +3271,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3245,7 +3291,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3253,29 +3299,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3284,29 +3330,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3315,22 +3361,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3342,10 +3388,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3357,14 +3403,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3373,10 +3419,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3388,14 +3434,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3404,10 +3450,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3419,14 +3465,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3436,7 +3482,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3448,14 +3494,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3464,27 +3510,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3493,27 +3539,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3522,27 +3568,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3551,27 +3597,27 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3580,29 +3626,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3611,29 +3657,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3642,10 +3688,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3657,10 +3703,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3669,27 +3715,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3713,7 +3759,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3727,22 +3773,22 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3754,27 +3800,27 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3783,29 +3829,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -3814,16 +3860,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -3832,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -3841,16 +3887,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -3861,7 +3907,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -3870,16 +3916,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -3888,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -3897,27 +3943,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -3926,29 +3972,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -3957,16 +4003,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -3977,7 +4023,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -3986,29 +4032,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4017,16 +4063,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4037,7 +4083,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4046,16 +4092,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4066,7 +4112,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4075,22 +4121,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4099,7 +4145,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4108,22 +4154,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4132,7 +4178,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4141,22 +4187,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4168,27 +4214,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4197,27 +4243,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4226,27 +4272,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4255,25 +4301,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4284,22 +4330,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4313,22 +4359,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4342,22 +4388,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4371,27 +4417,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4400,29 +4446,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4431,27 +4477,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4460,27 +4506,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4489,29 +4535,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4520,22 +4566,22 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4547,27 +4593,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4576,10 +4622,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4591,14 +4637,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4607,16 +4653,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4627,7 +4673,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4636,16 +4682,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4656,7 +4702,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4665,16 +4711,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4685,7 +4731,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4694,29 +4740,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4725,16 +4771,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4745,7 +4791,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4754,30 +4800,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4785,27 +4831,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -4814,25 +4860,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -4843,10 +4889,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -4858,12 +4904,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -4872,29 +4918,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -4903,29 +4949,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -4934,29 +4980,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -4965,16 +5011,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -4983,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -4992,29 +5038,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5023,29 +5069,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5054,13 +5100,13 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>42</v>
@@ -5069,14 +5115,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5085,13 +5131,13 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>42</v>
@@ -5100,14 +5146,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5116,7 +5162,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5133,29 +5179,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5164,29 +5210,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5195,30 +5241,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5226,29 +5272,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5257,22 +5303,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5281,7 +5327,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5290,29 +5336,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5321,7 +5367,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5329,22 +5375,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5353,7 +5399,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5362,29 +5408,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5393,29 +5439,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5424,29 +5470,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5455,29 +5501,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5486,29 +5532,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5517,29 +5563,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5548,29 +5594,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5579,29 +5625,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5610,10 +5656,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5625,7 +5671,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5641,29 +5687,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5672,16 +5718,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5690,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5699,29 +5745,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5730,29 +5776,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5761,29 +5807,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5792,29 +5838,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -5823,30 +5869,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5854,25 +5900,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -5881,25 +5927,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5907,29 +5953,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -5938,29 +5984,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -5969,25 +6015,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -5996,29 +6042,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6027,16 +6073,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6047,7 +6093,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6056,29 +6102,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6087,16 +6133,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6105,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6114,16 +6160,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6132,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6140,16 +6186,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6158,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6167,29 +6213,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6198,29 +6244,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6229,13 +6275,13 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>42</v>
@@ -6244,14 +6290,14 @@
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K113" s="34"/>
     </row>
@@ -6260,29 +6306,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6291,29 +6337,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6322,22 +6368,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6351,30 +6397,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6382,30 +6428,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6413,13 +6459,13 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E119" s="13" t="s">
         <v>42</v>
@@ -6428,12 +6474,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6442,29 +6488,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6473,16 +6519,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6493,7 +6539,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6502,16 +6548,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6522,7 +6568,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6531,29 +6577,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6562,29 +6608,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6593,29 +6639,29 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6624,13 +6670,13 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E126" s="13" t="s">
         <v>42</v>
@@ -6639,12 +6685,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6653,29 +6699,29 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6684,151 +6730,151 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K128" s="34"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -6837,29 +6883,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D139" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -6868,29 +6914,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -6899,10 +6945,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -6914,7 +6960,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -6930,10 +6976,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -6945,20 +6991,20 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -6966,29 +7012,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D148" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -6997,29 +7043,29 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="454">
   <si>
     <t>编号</t>
   </si>
@@ -165,6 +165,18 @@
     <t>时间复杂度</t>
   </si>
   <si>
+    <t>分隔链表</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/split-linked-list-in-parts/</t>
+  </si>
+  <si>
+    <t>链表</t>
+  </si>
+  <si>
+    <t>①链表</t>
+  </si>
+  <si>
     <t>Z字形变换</t>
   </si>
   <si>
@@ -355,9 +367,6 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/rotate-list/</t>
-  </si>
-  <si>
-    <t>链表</t>
   </si>
   <si>
     <t>①闭合成环 ②快慢指针</t>
@@ -1436,8 +1445,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1538,11 +1547,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1560,46 +1591,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1613,9 +1607,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1630,6 +1623,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1637,15 +1654,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1743,7 +1752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,7 +1776,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,79 +1824,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,13 +1866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,25 +1878,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1949,11 +1958,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1978,21 +2002,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2027,7 +2036,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2039,145 +2048,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2695,12 +2704,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3009,6 +3018,36 @@
         <v>47</v>
       </c>
     </row>
+    <row r="39" s="51" customFormat="1" spans="1:10">
+      <c r="A39" s="51">
+        <v>725</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="54">
+        <v>44461</v>
+      </c>
+      <c r="I39" s="54"/>
+      <c r="J39" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K7">
     <extLst/>
@@ -3021,6 +3060,7 @@
     <hyperlink ref="B7" r:id="rId5" display="单词搜索" tooltip="https://leetcode-cn.com/problems/word-search/"/>
     <hyperlink ref="B22" r:id="rId6" display="有效的数独" tooltip="https://leetcode-cn.com/problems/valid-sudoku/"/>
     <hyperlink ref="B23" r:id="rId7" display="解数独" tooltip="https://leetcode-cn.com/problems/sudoku-solver/"/>
+    <hyperlink ref="B39" r:id="rId8" display="分隔链表" tooltip="https://leetcode-cn.com/problems/split-linked-list-in-parts/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3089,29 +3129,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3120,29 +3160,29 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K4" s="34"/>
     </row>
@@ -3151,27 +3191,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3180,10 +3220,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3195,15 +3235,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3211,13 +3251,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>42</v>
@@ -3226,12 +3266,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3240,10 +3280,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3255,7 +3295,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3263,7 +3303,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3271,16 +3311,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3291,7 +3331,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3299,29 +3339,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3330,29 +3370,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3361,22 +3401,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3388,10 +3428,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3403,14 +3443,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3419,10 +3459,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3434,14 +3474,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3450,10 +3490,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3465,14 +3505,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3482,7 +3522,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3494,14 +3534,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3510,27 +3550,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3539,27 +3579,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3568,27 +3608,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3597,27 +3637,27 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3626,29 +3666,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3657,29 +3697,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3688,10 +3728,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3703,10 +3743,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3715,27 +3755,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3759,7 +3799,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3773,22 +3813,22 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3800,27 +3840,27 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3829,29 +3869,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -3860,16 +3900,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -3878,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -3887,16 +3927,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -3907,7 +3947,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -3916,16 +3956,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -3934,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -3943,27 +3983,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -3972,29 +4012,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -4003,16 +4043,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -4023,7 +4063,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -4032,29 +4072,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4063,16 +4103,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4083,7 +4123,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4092,16 +4132,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4112,7 +4152,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4121,22 +4161,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4145,7 +4185,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4154,22 +4194,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4178,7 +4218,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4187,22 +4227,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4214,27 +4254,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4243,27 +4283,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4272,27 +4312,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4301,25 +4341,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4330,22 +4370,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4359,22 +4399,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4388,22 +4428,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4417,27 +4457,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4446,29 +4486,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4477,27 +4517,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4506,27 +4546,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4535,29 +4575,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4566,22 +4606,22 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4593,27 +4633,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4622,10 +4662,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4637,14 +4677,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4653,16 +4693,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4673,7 +4713,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4682,16 +4722,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4702,7 +4742,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4711,16 +4751,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4731,7 +4771,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4740,29 +4780,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4771,16 +4811,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4791,7 +4831,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4800,30 +4840,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4831,27 +4871,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -4860,25 +4900,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -4889,10 +4929,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -4904,12 +4944,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -4918,29 +4958,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -4949,29 +4989,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -4980,29 +5020,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -5011,16 +5051,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -5029,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -5038,29 +5078,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5069,29 +5109,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5100,13 +5140,13 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>42</v>
@@ -5115,14 +5155,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5131,13 +5171,13 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>42</v>
@@ -5146,14 +5186,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5162,7 +5202,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5179,29 +5219,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5210,29 +5250,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5241,30 +5281,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5272,29 +5312,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5303,22 +5343,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5327,7 +5367,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5336,29 +5376,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5367,7 +5407,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5375,22 +5415,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5399,7 +5439,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5408,29 +5448,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5439,29 +5479,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5470,29 +5510,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5501,29 +5541,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5532,29 +5572,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5563,29 +5603,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5594,29 +5634,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5625,29 +5665,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5656,10 +5696,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5671,7 +5711,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5687,29 +5727,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5718,16 +5758,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5736,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5745,29 +5785,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5776,29 +5816,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5807,29 +5847,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5838,29 +5878,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -5869,30 +5909,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5900,25 +5940,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -5927,25 +5967,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5953,29 +5993,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -5984,29 +6024,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -6015,25 +6055,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -6042,29 +6082,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6073,16 +6113,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6093,7 +6133,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6102,29 +6142,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6133,16 +6173,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6151,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6160,16 +6200,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6178,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6186,16 +6226,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C110" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" s="13" t="s">
         <v>363</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>360</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6204,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6213,29 +6253,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6244,29 +6284,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6275,13 +6315,13 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>42</v>
@@ -6290,14 +6330,14 @@
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K113" s="34"/>
     </row>
@@ -6306,29 +6346,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6337,29 +6377,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6368,22 +6408,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6397,30 +6437,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6428,30 +6468,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6459,13 +6499,13 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E119" s="13" t="s">
         <v>42</v>
@@ -6474,12 +6514,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6488,29 +6528,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6519,16 +6559,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6539,7 +6579,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6548,16 +6588,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6568,7 +6608,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6577,29 +6617,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6608,29 +6648,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6639,29 +6679,29 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6670,13 +6710,13 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E126" s="13" t="s">
         <v>42</v>
@@ -6685,12 +6725,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6699,29 +6739,29 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6730,151 +6770,151 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K128" s="34"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -6883,29 +6923,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D139" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -6914,29 +6954,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -6945,10 +6985,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -6960,7 +7000,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -6976,10 +7016,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -6991,20 +7031,20 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -7012,29 +7052,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D148" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -7043,29 +7083,29 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="453">
   <si>
     <t>编号</t>
   </si>
@@ -174,7 +174,7 @@
     <t>链表</t>
   </si>
   <si>
-    <t>①链表</t>
+    <t>①模拟</t>
   </si>
   <si>
     <t>Z字形变换</t>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>AC</t>
-  </si>
-  <si>
-    <t>①模拟</t>
   </si>
   <si>
     <t>盛最多水的容器</t>
@@ -2709,7 +2706,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3182,7 +3179,7 @@
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K4" s="34"/>
     </row>
@@ -3191,27 +3188,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3220,10 +3217,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3235,15 +3232,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="35" t="s">
         <v>70</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3251,10 +3248,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>59</v>
@@ -3266,12 +3263,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3280,10 +3277,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3295,7 +3292,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3303,7 +3300,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3311,16 +3308,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3331,7 +3328,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3339,29 +3336,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3370,10 +3367,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>59</v>
@@ -3385,14 +3382,14 @@
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3401,22 +3398,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3428,10 +3425,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3450,7 +3447,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3459,10 +3456,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3474,14 +3471,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3490,10 +3487,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3505,14 +3502,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3522,7 +3519,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3534,14 +3531,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3550,27 +3547,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3579,27 +3576,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3608,27 +3605,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3637,10 +3634,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
@@ -3652,12 +3649,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3666,16 +3663,16 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
@@ -3688,7 +3685,7 @@
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3697,29 +3694,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3728,10 +3725,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3743,10 +3740,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3755,27 +3752,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3799,7 +3796,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3813,10 +3810,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
@@ -3828,7 +3825,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3840,10 +3837,10 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>59</v>
@@ -3855,12 +3852,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3869,29 +3866,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -3900,16 +3897,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -3918,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -3927,16 +3924,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -3947,7 +3944,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -3956,16 +3953,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -3974,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -3983,27 +3980,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -4012,29 +4009,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -4043,10 +4040,10 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>59</v>
@@ -4063,7 +4060,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -4072,29 +4069,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4103,16 +4100,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>165</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4123,7 +4120,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4132,16 +4129,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4152,7 +4149,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4161,22 +4158,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4185,7 +4182,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4194,22 +4191,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4218,7 +4215,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4227,22 +4224,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4254,27 +4251,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4283,27 +4280,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4312,27 +4309,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4341,25 +4338,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="D46" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4370,22 +4367,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4399,22 +4396,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4428,22 +4425,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4457,27 +4454,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4486,29 +4483,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4517,27 +4514,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4546,27 +4543,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4575,29 +4572,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4606,10 +4603,10 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>59</v>
@@ -4621,7 +4618,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4633,27 +4630,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>217</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4662,10 +4659,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4677,14 +4674,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4693,16 +4690,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4713,7 +4710,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4722,16 +4719,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4742,7 +4739,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4751,16 +4748,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4771,7 +4768,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4780,29 +4777,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4811,16 +4808,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>236</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4831,7 +4828,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4840,30 +4837,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4871,27 +4868,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -4900,25 +4897,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -4929,10 +4926,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -4944,12 +4941,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -4958,29 +4955,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -4989,29 +4986,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -5020,29 +5017,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -5051,16 +5048,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -5069,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -5078,29 +5075,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5109,29 +5106,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5140,10 +5137,10 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>59</v>
@@ -5155,14 +5152,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5171,10 +5168,10 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>59</v>
@@ -5186,14 +5183,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5202,7 +5199,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5219,29 +5216,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5250,29 +5247,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5281,30 +5278,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5312,29 +5309,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5343,22 +5340,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5367,7 +5364,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5376,29 +5373,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5407,7 +5404,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5415,22 +5412,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5439,7 +5436,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5448,29 +5445,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5479,29 +5476,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5510,29 +5507,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5541,29 +5538,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5572,29 +5569,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5603,29 +5600,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5634,29 +5631,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5665,10 +5662,10 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
@@ -5680,14 +5677,14 @@
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5696,10 +5693,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5711,7 +5708,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5727,29 +5724,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5758,16 +5755,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>318</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>319</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5776,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5785,16 +5782,16 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
@@ -5807,7 +5804,7 @@
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5816,29 +5813,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5847,29 +5844,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5878,29 +5875,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -5909,30 +5906,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5940,25 +5937,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C100" s="45" t="s">
         <v>335</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>336</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -5967,25 +5964,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5993,16 +5990,16 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
@@ -6015,7 +6012,7 @@
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -6024,29 +6021,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -6055,25 +6052,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -6082,29 +6079,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6113,10 +6110,10 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>354</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>59</v>
@@ -6133,7 +6130,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6142,29 +6139,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6173,16 +6170,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C108" s="13" t="s">
         <v>358</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>359</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6191,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6200,16 +6197,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>361</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>362</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6218,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6226,16 +6223,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6244,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6253,16 +6250,16 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
@@ -6275,7 +6272,7 @@
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6284,16 +6281,16 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
@@ -6306,7 +6303,7 @@
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6315,10 +6312,10 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>59</v>
@@ -6337,7 +6334,7 @@
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K113" s="34"/>
     </row>
@@ -6346,16 +6343,16 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
@@ -6368,7 +6365,7 @@
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6377,29 +6374,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6408,22 +6405,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6437,30 +6434,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>385</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>386</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="K117" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="K117" s="13" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6468,30 +6465,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="C118" s="13" t="s">
         <v>390</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>391</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6499,10 +6496,10 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>392</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>393</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>59</v>
@@ -6514,12 +6511,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6528,29 +6525,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6559,16 +6556,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C121" s="13" t="s">
         <v>397</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>398</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6579,7 +6576,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6588,16 +6585,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C122" s="13" t="s">
         <v>400</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>401</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6608,7 +6605,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6617,29 +6614,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6648,29 +6645,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6679,16 +6676,16 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
@@ -6701,7 +6698,7 @@
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6710,10 +6707,10 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>414</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>415</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>59</v>
@@ -6725,12 +6722,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6739,16 +6736,16 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
@@ -6761,7 +6758,7 @@
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6770,10 +6767,10 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>59</v>
@@ -6785,26 +6782,26 @@
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K128" s="34"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B129" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="C129" s="10" t="s">
         <v>422</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>423</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>59</v>
@@ -6816,105 +6813,105 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B130" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="C130" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B131" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B132" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -6923,16 +6920,16 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>15</v>
@@ -6945,7 +6942,7 @@
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -6954,16 +6951,16 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>438</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>439</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
@@ -6976,7 +6973,7 @@
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -6985,10 +6982,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -7016,10 +7013,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>444</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>445</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -7038,13 +7035,13 @@
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -7052,16 +7049,16 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
@@ -7074,7 +7071,7 @@
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -7083,10 +7080,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
@@ -7105,7 +7102,7 @@
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -2706,7 +2706,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="456">
   <si>
     <t>编号</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>①模拟</t>
+  </si>
+  <si>
+    <t>矩形面积</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/rectangle-area/</t>
+  </si>
+  <si>
+    <t>①容斥原理</t>
   </si>
   <si>
     <t>Z字形变换</t>
@@ -1443,9 +1452,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1523,9 +1532,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1536,18 +1596,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1567,52 +1628,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,22 +1652,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1651,10 +1660,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1749,7 +1758,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,7 +1782,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,7 +1884,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,133 +1920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,17 +1949,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1979,45 +2021,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2029,11 +2032,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2045,10 +2054,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2057,16 +2066,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2075,115 +2084,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2701,12 +2710,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3045,6 +3054,36 @@
         <v>51</v>
       </c>
     </row>
+    <row r="48" s="51" customFormat="1" spans="1:10">
+      <c r="A48" s="51">
+        <v>223</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="54">
+        <v>44469</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K7">
     <extLst/>
@@ -3058,6 +3097,7 @@
     <hyperlink ref="B22" r:id="rId6" display="有效的数独" tooltip="https://leetcode-cn.com/problems/valid-sudoku/"/>
     <hyperlink ref="B23" r:id="rId7" display="解数独" tooltip="https://leetcode-cn.com/problems/sudoku-solver/"/>
     <hyperlink ref="B39" r:id="rId8" display="分隔链表" tooltip="https://leetcode-cn.com/problems/split-linked-list-in-parts/"/>
+    <hyperlink ref="B48" r:id="rId9" display="矩形面积" tooltip="https://leetcode-cn.com/problems/rectangle-area/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3126,29 +3166,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3157,22 +3197,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
@@ -3188,27 +3228,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3217,10 +3257,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3232,15 +3272,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3248,13 +3288,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>42</v>
@@ -3263,12 +3303,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3277,10 +3317,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3292,7 +3332,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3300,7 +3340,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3308,16 +3348,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3328,7 +3368,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3336,29 +3376,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3367,29 +3407,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3398,22 +3438,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3425,10 +3465,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3440,14 +3480,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3456,10 +3496,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3471,14 +3511,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3487,10 +3527,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3502,14 +3542,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3519,7 +3559,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3531,14 +3571,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3547,27 +3587,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3576,27 +3616,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3605,27 +3645,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3634,10 +3674,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
@@ -3649,12 +3689,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3663,29 +3703,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3694,29 +3734,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3725,10 +3765,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3740,10 +3780,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3752,27 +3792,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3796,7 +3836,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3810,10 +3850,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
@@ -3825,7 +3865,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3837,13 +3877,13 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>50</v>
@@ -3852,12 +3892,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3866,29 +3906,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -3897,16 +3937,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -3915,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -3924,16 +3964,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -3944,7 +3984,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -3953,16 +3993,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -3971,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -3980,27 +4020,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -4009,29 +4049,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -4040,16 +4080,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -4060,7 +4100,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -4069,29 +4109,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4100,16 +4140,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4120,7 +4160,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4129,16 +4169,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4149,7 +4189,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4158,22 +4198,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4182,7 +4222,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4191,22 +4231,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4215,7 +4255,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4224,22 +4264,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4251,27 +4291,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4280,27 +4320,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4309,27 +4349,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4338,25 +4378,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4367,22 +4407,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4396,22 +4436,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4425,22 +4465,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4454,27 +4494,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4483,29 +4523,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4514,27 +4554,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4543,27 +4583,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4572,29 +4612,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4603,13 +4643,13 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>50</v>
@@ -4618,7 +4658,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4630,27 +4670,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4659,10 +4699,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4674,14 +4714,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4690,16 +4730,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4710,7 +4750,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4719,16 +4759,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4739,7 +4779,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4748,16 +4788,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4768,7 +4808,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4777,29 +4817,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4808,16 +4848,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4828,7 +4868,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4837,30 +4877,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4868,27 +4908,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -4897,25 +4937,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -4926,10 +4966,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -4941,12 +4981,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -4955,29 +4995,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -4986,29 +5026,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -5017,29 +5057,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -5048,16 +5088,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -5066,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -5075,29 +5115,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5106,29 +5146,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5137,13 +5177,13 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>42</v>
@@ -5152,14 +5192,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5168,13 +5208,13 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>42</v>
@@ -5183,14 +5223,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5199,7 +5239,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5216,29 +5256,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5247,29 +5287,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5278,30 +5318,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5309,29 +5349,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5340,22 +5380,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5364,7 +5404,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5373,29 +5413,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5404,7 +5444,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5412,22 +5452,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5436,7 +5476,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5445,29 +5485,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5476,29 +5516,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5507,29 +5547,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5538,29 +5578,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5569,29 +5609,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5600,29 +5640,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5631,29 +5671,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5662,29 +5702,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5693,10 +5733,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5708,7 +5748,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5724,29 +5764,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5755,16 +5795,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5773,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5782,29 +5822,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5813,29 +5853,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5844,29 +5884,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5875,29 +5915,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -5906,30 +5946,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5937,25 +5977,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -5964,25 +6004,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5990,29 +6030,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -6021,29 +6061,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -6052,25 +6092,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -6079,29 +6119,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6110,16 +6150,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6130,7 +6170,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6139,29 +6179,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6170,16 +6210,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6188,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6197,16 +6237,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6215,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6223,16 +6263,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C110" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>362</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6241,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6250,29 +6290,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6281,29 +6321,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6312,13 +6352,13 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>42</v>
@@ -6327,7 +6367,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
@@ -6343,29 +6383,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6374,29 +6414,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6405,22 +6445,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6434,30 +6474,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6465,30 +6505,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6496,13 +6536,13 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E119" s="13" t="s">
         <v>42</v>
@@ -6511,12 +6551,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6525,29 +6565,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6556,16 +6596,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6576,7 +6616,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6585,16 +6625,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6605,7 +6645,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6614,29 +6654,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6645,29 +6685,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6676,29 +6716,29 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6707,13 +6747,13 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E126" s="13" t="s">
         <v>42</v>
@@ -6722,12 +6762,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6736,29 +6776,29 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6767,22 +6807,22 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
@@ -6795,16 +6835,16 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>50</v>
@@ -6813,105 +6853,105 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -6920,29 +6960,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -6951,29 +6991,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -6982,10 +7022,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -6997,7 +7037,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -7013,10 +7053,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -7028,20 +7068,20 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -7049,29 +7089,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -7080,10 +7120,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
@@ -7095,14 +7135,14 @@
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="459">
   <si>
     <t>编号</t>
   </si>
@@ -186,6 +186,18 @@
     <t>①容斥原理</t>
   </si>
   <si>
+    <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/fizz-buzz/</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>编程练习、字符串</t>
+  </si>
+  <si>
     <t>Z字形变换</t>
   </si>
   <si>
@@ -205,9 +217,6 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/reverse-integer/</t>
-  </si>
-  <si>
-    <t>简单</t>
   </si>
   <si>
     <t>回文翻转</t>
@@ -1451,10 +1460,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1532,28 +1541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,7 +1555,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1575,9 +1571,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1590,15 +1586,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1614,9 +1610,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1628,9 +1624,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1643,9 +1645,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1662,6 +1664,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1758,7 +1767,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,13 +1851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,31 +1869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,7 +1893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,43 +1911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1884,43 +1929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,17 +1967,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1992,7 +2006,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2012,22 +2026,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2054,10 +2063,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2066,16 +2075,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2084,115 +2093,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2710,12 +2719,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3084,6 +3093,36 @@
         <v>54</v>
       </c>
     </row>
+    <row r="62" s="51" customFormat="1" spans="1:10">
+      <c r="A62" s="51">
+        <v>412</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="54">
+        <v>44482</v>
+      </c>
+      <c r="I62" s="54"/>
+      <c r="J62" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K7">
     <extLst/>
@@ -3098,6 +3137,7 @@
     <hyperlink ref="B23" r:id="rId7" display="解数独" tooltip="https://leetcode-cn.com/problems/sudoku-solver/"/>
     <hyperlink ref="B39" r:id="rId8" display="分隔链表" tooltip="https://leetcode-cn.com/problems/split-linked-list-in-parts/"/>
     <hyperlink ref="B48" r:id="rId9" display="矩形面积" tooltip="https://leetcode-cn.com/problems/rectangle-area/"/>
+    <hyperlink ref="B62" r:id="rId10" display="Fizz Buzz" tooltip="https://leetcode-cn.com/problems/fizz-buzz/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3166,29 +3206,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3197,22 +3237,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
@@ -3228,27 +3268,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3257,10 +3297,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3272,15 +3312,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3288,13 +3328,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>42</v>
@@ -3303,12 +3343,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3317,10 +3357,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3332,7 +3372,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3340,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3348,16 +3388,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3368,7 +3408,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3376,29 +3416,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3407,29 +3447,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3438,22 +3478,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3465,10 +3505,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3480,14 +3520,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3496,10 +3536,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3511,14 +3551,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3527,10 +3567,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3542,14 +3582,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3559,7 +3599,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3571,14 +3611,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3587,27 +3627,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3616,27 +3656,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3645,27 +3685,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3674,10 +3714,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
@@ -3689,12 +3729,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3703,29 +3743,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3734,29 +3774,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3765,10 +3805,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3780,10 +3820,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3792,27 +3832,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3836,7 +3876,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3850,10 +3890,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
@@ -3865,7 +3905,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3877,13 +3917,13 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>50</v>
@@ -3892,12 +3932,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3906,29 +3946,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -3937,16 +3977,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -3955,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -3964,16 +4004,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -3984,7 +4024,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -3993,16 +4033,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -4011,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -4020,27 +4060,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -4049,29 +4089,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -4080,16 +4120,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -4100,7 +4140,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -4109,29 +4149,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4140,16 +4180,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4160,7 +4200,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4169,16 +4209,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4189,7 +4229,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4198,22 +4238,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4222,7 +4262,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4231,22 +4271,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4255,7 +4295,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4264,22 +4304,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4291,27 +4331,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4320,27 +4360,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4349,27 +4389,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4378,25 +4418,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4407,22 +4447,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4436,22 +4476,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4465,22 +4505,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4494,27 +4534,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4523,29 +4563,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4554,27 +4594,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4583,27 +4623,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4612,29 +4652,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4643,13 +4683,13 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>50</v>
@@ -4658,7 +4698,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4670,27 +4710,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4699,10 +4739,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4714,14 +4754,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4730,16 +4770,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4750,7 +4790,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4759,16 +4799,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4779,7 +4819,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4788,16 +4828,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4808,7 +4848,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4817,29 +4857,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4848,16 +4888,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4868,7 +4908,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4877,30 +4917,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4908,27 +4948,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -4937,25 +4977,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -4966,10 +5006,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -4981,12 +5021,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -4995,29 +5035,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -5026,29 +5066,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -5057,29 +5097,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -5088,16 +5128,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -5106,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -5115,29 +5155,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5146,29 +5186,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5177,13 +5217,13 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>42</v>
@@ -5192,14 +5232,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5208,13 +5248,13 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>42</v>
@@ -5223,14 +5263,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5239,7 +5279,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5256,29 +5296,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5287,29 +5327,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5318,30 +5358,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5349,29 +5389,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5380,22 +5420,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5404,7 +5444,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5413,29 +5453,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5444,7 +5484,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5452,22 +5492,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5476,7 +5516,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5485,29 +5525,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5516,29 +5556,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5547,29 +5587,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5578,29 +5618,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5609,29 +5649,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5640,29 +5680,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5671,29 +5711,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5702,29 +5742,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5733,10 +5773,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5748,7 +5788,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5764,29 +5804,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5795,16 +5835,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5813,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5822,29 +5862,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5853,29 +5893,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5884,29 +5924,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5915,29 +5955,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -5946,30 +5986,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5977,25 +6017,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -6004,25 +6044,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6030,29 +6070,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -6061,29 +6101,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -6092,25 +6132,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -6119,29 +6159,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6150,16 +6190,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6170,7 +6210,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6179,29 +6219,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6210,16 +6250,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6228,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6237,16 +6277,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6255,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6263,16 +6303,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C110" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E110" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>365</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6281,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6290,29 +6330,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6321,29 +6361,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6352,13 +6392,13 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>42</v>
@@ -6367,7 +6407,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
@@ -6383,29 +6423,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6414,29 +6454,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6445,22 +6485,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6474,30 +6514,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6505,30 +6545,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6536,13 +6576,13 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E119" s="13" t="s">
         <v>42</v>
@@ -6551,12 +6591,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6565,29 +6605,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6596,16 +6636,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6616,7 +6656,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6625,16 +6665,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6645,7 +6685,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6654,29 +6694,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6685,29 +6725,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6716,29 +6756,29 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6747,13 +6787,13 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E126" s="13" t="s">
         <v>42</v>
@@ -6762,12 +6802,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6776,29 +6816,29 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6807,22 +6847,22 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
@@ -6835,16 +6875,16 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>50</v>
@@ -6853,105 +6893,105 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -6960,29 +7000,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D139" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -6991,29 +7031,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -7022,10 +7062,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -7037,7 +7077,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -7053,10 +7093,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -7068,20 +7108,20 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -7089,29 +7129,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D148" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -7120,10 +7160,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
@@ -7135,14 +7175,14 @@
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="462">
   <si>
     <t>编号</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>编程练习、字符串</t>
+  </si>
+  <si>
+    <t>排列硬币</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/arranging-coins/</t>
+  </si>
+  <si>
+    <t>数学、二分</t>
   </si>
   <si>
     <t>Z字形变换</t>
@@ -2719,12 +2728,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3123,6 +3132,33 @@
         <v>51</v>
       </c>
     </row>
+    <row r="63" s="51" customFormat="1" spans="1:9">
+      <c r="A63" s="51">
+        <v>441</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="54">
+        <v>44483</v>
+      </c>
+      <c r="I63" s="54"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K7">
     <extLst/>
@@ -3138,6 +3174,7 @@
     <hyperlink ref="B39" r:id="rId8" display="分隔链表" tooltip="https://leetcode-cn.com/problems/split-linked-list-in-parts/"/>
     <hyperlink ref="B48" r:id="rId9" display="矩形面积" tooltip="https://leetcode-cn.com/problems/rectangle-area/"/>
     <hyperlink ref="B62" r:id="rId10" display="Fizz Buzz" tooltip="https://leetcode-cn.com/problems/fizz-buzz/"/>
+    <hyperlink ref="B63" r:id="rId11" display="排列硬币" tooltip="https://leetcode-cn.com/problems/arranging-coins/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3206,29 +3243,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3237,22 +3274,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
@@ -3268,27 +3305,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3297,10 +3334,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3312,15 +3349,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3328,10 +3365,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>57</v>
@@ -3343,12 +3380,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3357,10 +3394,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3372,7 +3409,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3380,7 +3417,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3388,16 +3425,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3408,7 +3445,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3416,29 +3453,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3447,29 +3484,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3478,22 +3515,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3505,10 +3542,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3520,14 +3557,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3536,10 +3573,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3551,14 +3588,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3567,10 +3604,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3582,14 +3619,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3599,7 +3636,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3611,14 +3648,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3627,27 +3664,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3656,27 +3693,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3685,27 +3722,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3714,10 +3751,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
@@ -3729,12 +3766,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3743,29 +3780,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3774,29 +3811,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3805,10 +3842,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3820,10 +3857,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3832,27 +3869,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3876,7 +3913,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3890,10 +3927,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
@@ -3905,7 +3942,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3917,10 +3954,10 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>57</v>
@@ -3932,12 +3969,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3946,29 +3983,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -3977,16 +4014,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -3995,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -4004,16 +4041,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -4024,7 +4061,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -4033,16 +4070,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -4051,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -4060,27 +4097,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -4089,29 +4126,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -4120,16 +4157,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -4140,7 +4177,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -4149,29 +4186,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4180,16 +4217,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4200,7 +4237,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4209,16 +4246,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4229,7 +4266,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4238,22 +4275,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4262,7 +4299,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4271,22 +4308,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4295,7 +4332,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4304,22 +4341,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4331,27 +4368,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4360,27 +4397,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4389,27 +4426,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4418,25 +4455,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4447,22 +4484,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4476,22 +4513,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4505,22 +4542,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4534,27 +4571,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4563,29 +4600,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4594,27 +4631,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4623,27 +4660,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4652,29 +4689,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4683,10 +4720,10 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>57</v>
@@ -4698,7 +4735,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4710,27 +4747,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4739,10 +4776,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4754,14 +4791,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4770,16 +4807,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4790,7 +4827,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4799,16 +4836,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4819,7 +4856,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4828,16 +4865,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4848,7 +4885,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4857,29 +4894,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4888,16 +4925,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4908,7 +4945,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4917,30 +4954,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4948,27 +4985,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -4977,25 +5014,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -5006,10 +5043,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -5021,12 +5058,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -5035,29 +5072,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -5066,29 +5103,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -5097,29 +5134,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -5128,16 +5165,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -5146,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -5155,29 +5192,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5186,29 +5223,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5217,10 +5254,10 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>57</v>
@@ -5232,14 +5269,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5248,10 +5285,10 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>57</v>
@@ -5263,14 +5300,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5279,7 +5316,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5296,29 +5333,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5327,29 +5364,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5358,30 +5395,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5389,29 +5426,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5420,22 +5457,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5444,7 +5481,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5453,29 +5490,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5484,7 +5521,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5492,22 +5529,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5516,7 +5553,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5525,29 +5562,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5556,29 +5593,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5587,29 +5624,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5618,29 +5655,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5649,29 +5686,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5680,29 +5717,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5711,29 +5748,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5742,29 +5779,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5773,10 +5810,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5788,7 +5825,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5804,29 +5841,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5835,16 +5872,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5853,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5862,29 +5899,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5893,29 +5930,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5924,29 +5961,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5955,29 +5992,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -5986,30 +6023,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -6017,25 +6054,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -6044,25 +6081,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6070,29 +6107,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -6101,29 +6138,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -6132,25 +6169,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -6159,29 +6196,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6190,16 +6227,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6210,7 +6247,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6219,29 +6256,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6250,16 +6287,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6268,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6277,16 +6314,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6295,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6303,16 +6340,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6321,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6330,29 +6367,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6361,29 +6398,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6392,10 +6429,10 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>57</v>
@@ -6407,7 +6444,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
@@ -6423,29 +6460,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6454,29 +6491,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6485,22 +6522,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6514,30 +6551,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6545,30 +6582,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6576,10 +6613,10 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>57</v>
@@ -6591,12 +6628,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6605,29 +6642,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6636,16 +6673,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6656,7 +6693,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6665,16 +6702,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6685,7 +6722,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6694,29 +6731,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6725,29 +6762,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6756,29 +6793,29 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6787,10 +6824,10 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>57</v>
@@ -6802,12 +6839,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6816,29 +6853,29 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6847,22 +6884,22 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
@@ -6875,13 +6912,13 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>57</v>
@@ -6893,105 +6930,105 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -7000,29 +7037,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -7031,29 +7068,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -7062,10 +7099,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -7077,7 +7114,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -7093,10 +7130,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -7108,20 +7145,20 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -7129,29 +7166,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -7160,10 +7197,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
@@ -7175,14 +7212,14 @@
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="463">
   <si>
     <t>编号</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>数学、二分</t>
+  </si>
+  <si>
+    <t>①一元二次方程 ②二分查找</t>
   </si>
   <si>
     <t>Z字形变换</t>
@@ -2733,7 +2736,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3132,7 +3135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" s="51" customFormat="1" spans="1:9">
+    <row r="63" s="51" customFormat="1" spans="1:10">
       <c r="A63" s="51">
         <v>441</v>
       </c>
@@ -3158,6 +3161,9 @@
         <v>44483</v>
       </c>
       <c r="I63" s="54"/>
+      <c r="J63" s="51" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K7">
@@ -3243,29 +3249,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3274,22 +3280,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
@@ -3305,27 +3311,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3334,10 +3340,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3349,15 +3355,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3365,10 +3371,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>57</v>
@@ -3380,12 +3386,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3394,10 +3400,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3409,7 +3415,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3417,7 +3423,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3425,16 +3431,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3445,7 +3451,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3453,29 +3459,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3484,29 +3490,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3515,22 +3521,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3542,10 +3548,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3557,14 +3563,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3573,10 +3579,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3588,14 +3594,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3604,10 +3610,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3619,14 +3625,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3636,7 +3642,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3648,14 +3654,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3664,27 +3670,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3693,27 +3699,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3722,27 +3728,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3751,10 +3757,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
@@ -3766,12 +3772,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3780,29 +3786,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3811,29 +3817,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3842,10 +3848,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3857,10 +3863,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3869,27 +3875,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3913,7 +3919,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3927,10 +3933,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
@@ -3942,7 +3948,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3954,10 +3960,10 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>57</v>
@@ -3969,12 +3975,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3983,29 +3989,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -4014,16 +4020,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -4032,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -4041,16 +4047,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -4061,7 +4067,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -4070,16 +4076,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -4088,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -4097,27 +4103,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -4126,29 +4132,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -4157,16 +4163,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -4177,7 +4183,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -4186,29 +4192,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4217,16 +4223,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4237,7 +4243,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4246,16 +4252,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4266,7 +4272,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4275,22 +4281,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4299,7 +4305,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4308,22 +4314,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4332,7 +4338,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4341,22 +4347,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4368,27 +4374,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4397,27 +4403,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4426,27 +4432,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4455,25 +4461,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4484,22 +4490,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4513,22 +4519,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4542,22 +4548,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4571,27 +4577,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4600,29 +4606,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4631,27 +4637,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4660,27 +4666,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4689,29 +4695,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4720,10 +4726,10 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>57</v>
@@ -4735,7 +4741,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4747,27 +4753,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4776,10 +4782,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4791,14 +4797,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4807,16 +4813,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4827,7 +4833,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4836,16 +4842,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4856,7 +4862,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4865,16 +4871,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4885,7 +4891,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4894,29 +4900,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4925,16 +4931,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4945,7 +4951,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4954,30 +4960,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4985,27 +4991,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -5014,25 +5020,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -5043,10 +5049,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -5058,12 +5064,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -5072,29 +5078,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -5103,29 +5109,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -5134,29 +5140,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -5165,16 +5171,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -5183,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -5192,29 +5198,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5223,29 +5229,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5254,10 +5260,10 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>57</v>
@@ -5269,14 +5275,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5285,10 +5291,10 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>57</v>
@@ -5300,14 +5306,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5316,7 +5322,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5333,29 +5339,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5364,29 +5370,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5395,30 +5401,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5426,29 +5432,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5457,22 +5463,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5481,7 +5487,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5490,29 +5496,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5521,7 +5527,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5529,22 +5535,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5553,7 +5559,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5562,29 +5568,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5593,29 +5599,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5624,29 +5630,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5655,29 +5661,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5686,29 +5692,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5717,29 +5723,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5748,29 +5754,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5779,29 +5785,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5810,10 +5816,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5825,7 +5831,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5841,29 +5847,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5872,16 +5878,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5890,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5899,29 +5905,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5930,29 +5936,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5961,29 +5967,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5992,29 +5998,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -6023,30 +6029,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -6054,25 +6060,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -6081,25 +6087,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6107,29 +6113,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -6138,29 +6144,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -6169,25 +6175,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -6196,29 +6202,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6227,16 +6233,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6247,7 +6253,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6256,29 +6262,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6287,16 +6293,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6305,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6314,16 +6320,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6332,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6340,16 +6346,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6358,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6367,29 +6373,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6398,29 +6404,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6429,10 +6435,10 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>57</v>
@@ -6444,7 +6450,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
@@ -6460,29 +6466,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6491,29 +6497,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6522,22 +6528,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6551,30 +6557,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6582,30 +6588,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6613,10 +6619,10 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>57</v>
@@ -6628,12 +6634,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6642,29 +6648,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6673,16 +6679,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6693,7 +6699,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6702,16 +6708,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6722,7 +6728,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6731,29 +6737,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6762,29 +6768,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6793,29 +6799,29 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6824,10 +6830,10 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>57</v>
@@ -6839,12 +6845,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6853,29 +6859,29 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6884,22 +6890,22 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
@@ -6912,13 +6918,13 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>57</v>
@@ -6930,105 +6936,105 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -7037,29 +7043,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -7068,29 +7074,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -7099,10 +7105,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -7114,7 +7120,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -7130,10 +7136,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -7145,20 +7151,20 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -7166,29 +7172,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -7197,10 +7203,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
@@ -7212,14 +7218,14 @@
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="463">
   <si>
     <t>编号</t>
   </si>
@@ -210,6 +210,18 @@
     <t>①一元二次方程 ②二分查找</t>
   </si>
   <si>
+    <t>只出现一次的数字</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/single-number/</t>
+  </si>
+  <si>
+    <t>位运算</t>
+  </si>
+  <si>
+    <t>①异或运算</t>
+  </si>
+  <si>
     <t>Z字形变换</t>
   </si>
   <si>
@@ -559,15 +571,6 @@
   </si>
   <si>
     <t>两个动态规划</t>
-  </si>
-  <si>
-    <t>只出现一次的数字</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/single-number/</t>
-  </si>
-  <si>
-    <t>位运算</t>
   </si>
   <si>
     <t>ACC</t>
@@ -1334,9 +1337,6 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/decode-xored-array/</t>
-  </si>
-  <si>
-    <t>①异或运算</t>
   </si>
   <si>
     <t>检查某单词是否等于两单词之和</t>
@@ -2731,12 +2731,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3165,6 +3165,36 @@
         <v>62</v>
       </c>
     </row>
+    <row r="76" s="51" customFormat="1" spans="1:10">
+      <c r="A76" s="51">
+        <v>136</v>
+      </c>
+      <c r="B76" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="54">
+        <v>44484</v>
+      </c>
+      <c r="I76" s="54"/>
+      <c r="J76" s="51" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K7">
     <extLst/>
@@ -3181,6 +3211,7 @@
     <hyperlink ref="B48" r:id="rId9" display="矩形面积" tooltip="https://leetcode-cn.com/problems/rectangle-area/"/>
     <hyperlink ref="B62" r:id="rId10" display="Fizz Buzz" tooltip="https://leetcode-cn.com/problems/fizz-buzz/"/>
     <hyperlink ref="B63" r:id="rId11" display="排列硬币" tooltip="https://leetcode-cn.com/problems/arranging-coins/"/>
+    <hyperlink ref="B76" r:id="rId12" display="只出现一次的数字" tooltip="https://leetcode-cn.com/problems/single-number/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3249,29 +3280,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3280,22 +3311,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
@@ -3311,27 +3342,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3340,10 +3371,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3355,15 +3386,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3371,10 +3402,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>57</v>
@@ -3386,12 +3417,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3400,10 +3431,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3415,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3423,7 +3454,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3431,16 +3462,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3451,7 +3482,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3459,29 +3490,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3490,29 +3521,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3521,22 +3552,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3548,10 +3579,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3563,14 +3594,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3579,10 +3610,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3594,14 +3625,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3610,10 +3641,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3625,14 +3656,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3642,7 +3673,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3654,14 +3685,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3670,27 +3701,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3699,27 +3730,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3728,27 +3759,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3757,10 +3788,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
@@ -3772,12 +3803,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3786,29 +3817,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3817,29 +3848,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3848,10 +3879,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3863,10 +3894,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3875,27 +3906,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3919,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3933,10 +3964,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
@@ -3948,7 +3979,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3960,10 +3991,10 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>57</v>
@@ -3975,12 +4006,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -3989,29 +4020,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -4020,16 +4051,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -4038,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -4047,16 +4078,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -4067,7 +4098,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -4076,16 +4107,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -4094,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -4103,27 +4134,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -4132,29 +4163,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -4163,16 +4194,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -4183,7 +4214,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -4192,29 +4223,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4223,16 +4254,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4243,7 +4274,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4252,16 +4283,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4272,7 +4303,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4281,22 +4312,22 @@
         <v>136</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4305,7 +4336,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4314,22 +4345,22 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4338,7 +4369,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4347,22 +4378,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4374,27 +4405,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4403,27 +4434,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4432,27 +4463,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4461,25 +4492,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4490,22 +4521,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4519,22 +4550,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4548,22 +4579,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4577,27 +4608,27 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4606,29 +4637,29 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4637,27 +4668,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4666,27 +4697,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4695,29 +4726,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4726,10 +4757,10 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>57</v>
@@ -4741,7 +4772,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4753,27 +4784,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4782,10 +4813,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4797,14 +4828,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4813,16 +4844,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4833,7 +4864,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4842,16 +4873,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4862,7 +4893,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4871,16 +4902,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4891,7 +4922,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4900,29 +4931,29 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4931,16 +4962,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4951,7 +4982,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4960,30 +4991,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -4991,27 +5022,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -5020,25 +5051,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -5049,10 +5080,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -5064,12 +5095,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -5078,29 +5109,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -5109,29 +5140,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -5140,29 +5171,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -5171,16 +5202,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -5189,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -5198,29 +5229,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5229,29 +5260,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5260,10 +5291,10 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>57</v>
@@ -5275,14 +5306,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5291,10 +5322,10 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>57</v>
@@ -5306,14 +5337,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5322,7 +5353,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5339,29 +5370,29 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5370,29 +5401,29 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5401,30 +5432,30 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5432,29 +5463,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5463,22 +5494,22 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5487,7 +5518,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5496,29 +5527,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5527,7 +5558,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5535,22 +5566,22 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5559,7 +5590,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5568,29 +5599,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5599,29 +5630,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5630,29 +5661,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5661,29 +5692,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5692,29 +5723,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5723,29 +5754,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5754,29 +5785,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5785,29 +5816,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5816,10 +5847,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5831,7 +5862,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5847,29 +5878,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5878,16 +5909,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5896,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5905,29 +5936,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5936,29 +5967,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5967,29 +5998,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -5998,29 +6029,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -6029,30 +6060,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -6060,25 +6091,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -6087,25 +6118,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6113,29 +6144,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -6144,29 +6175,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -6175,25 +6206,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -6202,29 +6233,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6233,16 +6264,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6253,7 +6284,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6262,29 +6293,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6293,16 +6324,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6311,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6320,16 +6351,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6338,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6346,16 +6377,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6364,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6373,29 +6404,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6404,29 +6435,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6435,10 +6466,10 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>57</v>
@@ -6450,7 +6481,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
@@ -6466,29 +6497,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6497,29 +6528,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6528,22 +6559,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6557,30 +6588,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6588,30 +6619,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6619,10 +6650,10 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>57</v>
@@ -6634,12 +6665,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6648,29 +6679,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6679,16 +6710,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6699,7 +6730,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6708,16 +6739,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6728,7 +6759,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6737,29 +6768,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6768,29 +6799,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6799,29 +6830,29 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6830,10 +6861,10 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>57</v>
@@ -6845,12 +6876,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6859,29 +6890,29 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="3" t="s">
-        <v>427</v>
+        <v>66</v>
       </c>
       <c r="K127" s="34"/>
     </row>
@@ -6899,13 +6930,13 @@
         <v>57</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
@@ -6936,7 +6967,7 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
@@ -6959,13 +6990,13 @@
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
@@ -6990,13 +7021,13 @@
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
@@ -7021,13 +7052,13 @@
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
@@ -7058,7 +7089,7 @@
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
@@ -7089,7 +7120,7 @@
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
@@ -7120,7 +7151,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -7151,7 +7182,7 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
@@ -7181,13 +7212,13 @@
         <v>57</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
@@ -7218,7 +7249,7 @@
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="464">
   <si>
     <t>编号</t>
   </si>
@@ -222,6 +222,18 @@
     <t>①异或运算</t>
   </si>
   <si>
+    <t>二叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>二叉树</t>
+  </si>
+  <si>
+    <t>①递归 ②迭代（通用） ③迭代（技巧） ④Mirror</t>
+  </si>
+  <si>
     <t>Z字形变换</t>
   </si>
   <si>
@@ -486,9 +498,6 @@
     <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal/</t>
   </si>
   <si>
-    <t>二叉树</t>
-  </si>
-  <si>
     <t>广度优先搜索/深度优先搜索</t>
   </si>
   <si>
@@ -586,12 +595,6 @@
   </si>
   <si>
     <t>①逐位计算 ②逻辑电路（a、b同时计算） ③逻辑电路（先算b，再算a）</t>
-  </si>
-  <si>
-    <t>二叉树的前序遍历</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/binary-tree-preorder-traversal/</t>
   </si>
   <si>
     <t>逆波兰表达式求值</t>
@@ -1472,8 +1475,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1560,14 +1563,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1589,6 +1614,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1598,7 +1638,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1606,17 +1653,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1636,38 +1675,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1676,13 +1686,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1779,79 +1782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,7 +1800,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,13 +1848,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,19 +1902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1923,13 +1914,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,7 +1944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,52 +1976,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2053,6 +2012,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2075,145 +2078,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2731,12 +2734,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3195,6 +3198,36 @@
         <v>66</v>
       </c>
     </row>
+    <row r="82" s="51" customFormat="1" spans="1:10">
+      <c r="A82" s="51">
+        <v>144</v>
+      </c>
+      <c r="B82" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="54">
+        <v>44487</v>
+      </c>
+      <c r="I82" s="54"/>
+      <c r="J82" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K7">
     <extLst/>
@@ -3212,6 +3245,7 @@
     <hyperlink ref="B62" r:id="rId10" display="Fizz Buzz" tooltip="https://leetcode-cn.com/problems/fizz-buzz/"/>
     <hyperlink ref="B63" r:id="rId11" display="排列硬币" tooltip="https://leetcode-cn.com/problems/arranging-coins/"/>
     <hyperlink ref="B76" r:id="rId12" display="只出现一次的数字" tooltip="https://leetcode-cn.com/problems/single-number/"/>
+    <hyperlink ref="B82" r:id="rId13" display="二叉树的前序遍历" tooltip="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3280,29 +3314,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3311,22 +3345,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
@@ -3342,27 +3376,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3371,10 +3405,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3386,15 +3420,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3402,10 +3436,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>57</v>
@@ -3417,12 +3451,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3431,10 +3465,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3446,7 +3480,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3454,7 +3488,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3462,16 +3496,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3482,7 +3516,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3490,29 +3524,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3521,29 +3555,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3552,22 +3586,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3579,10 +3613,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3594,14 +3628,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3610,10 +3644,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3625,14 +3659,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3641,10 +3675,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3656,14 +3690,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3673,7 +3707,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3685,14 +3719,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3701,27 +3735,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3730,27 +3764,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3759,27 +3793,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3788,10 +3822,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
@@ -3803,12 +3837,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3817,29 +3851,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3848,29 +3882,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3879,10 +3913,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3894,10 +3928,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3906,27 +3940,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3950,7 +3984,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3964,10 +3998,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
@@ -3979,7 +4013,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3991,10 +4025,10 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>57</v>
@@ -4006,12 +4040,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -4020,29 +4054,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -4051,16 +4085,16 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>15</v>
@@ -4069,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -4078,16 +4112,16 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>15</v>
@@ -4098,7 +4132,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -4107,16 +4141,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>15</v>
@@ -4125,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -4134,27 +4168,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -4163,29 +4197,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -4194,16 +4228,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -4214,7 +4248,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -4223,29 +4257,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4254,16 +4288,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4274,7 +4308,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4283,16 +4317,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4303,7 +4337,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4327,7 +4361,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4336,7 +4370,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4345,10 +4379,10 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
@@ -4360,7 +4394,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4369,7 +4403,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4378,22 +4412,22 @@
         <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4405,27 +4439,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4434,27 +4468,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4463,27 +4497,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4492,25 +4526,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4521,22 +4555,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4550,22 +4584,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4579,22 +4613,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4608,10 +4642,10 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>57</v>
@@ -4623,12 +4657,12 @@
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4637,10 +4671,10 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>57</v>
@@ -4652,14 +4686,14 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4668,27 +4702,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4697,27 +4731,27 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4726,29 +4760,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4757,10 +4791,10 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>57</v>
@@ -4772,7 +4806,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4784,27 +4818,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4813,10 +4847,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4828,14 +4862,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4844,16 +4878,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4864,7 +4898,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4873,16 +4907,16 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>15</v>
@@ -4893,7 +4927,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4902,16 +4936,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4922,7 +4956,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4931,10 +4965,10 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>57</v>
@@ -4946,14 +4980,14 @@
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4962,16 +4996,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -4982,7 +5016,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -4991,30 +5025,30 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -5022,27 +5056,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -5051,25 +5085,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -5080,10 +5114,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -5095,12 +5129,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -5109,29 +5143,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -5140,29 +5174,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -5171,29 +5205,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -5202,16 +5236,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -5220,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -5229,29 +5263,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5260,29 +5294,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5291,10 +5325,10 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>57</v>
@@ -5306,14 +5340,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5322,10 +5356,10 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>57</v>
@@ -5337,14 +5371,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5353,7 +5387,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5370,10 +5404,10 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
@@ -5385,14 +5419,14 @@
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5401,10 +5435,10 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
@@ -5416,14 +5450,14 @@
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5432,10 +5466,10 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>57</v>
@@ -5447,15 +5481,15 @@
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5463,29 +5497,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5494,10 +5528,10 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>57</v>
@@ -5509,7 +5543,7 @@
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5518,7 +5552,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5527,29 +5561,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5558,7 +5592,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5566,10 +5600,10 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
@@ -5581,7 +5615,7 @@
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5590,7 +5624,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5599,29 +5633,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5630,29 +5664,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5661,29 +5695,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5692,29 +5726,29 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5723,29 +5757,29 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5754,29 +5788,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5785,29 +5819,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5816,29 +5850,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5847,10 +5881,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5862,7 +5896,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5878,29 +5912,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5909,16 +5943,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5927,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5936,29 +5970,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -5967,29 +6001,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -5998,29 +6032,29 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -6029,29 +6063,29 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -6060,30 +6094,30 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -6091,25 +6125,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -6118,25 +6152,25 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6144,29 +6178,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -6175,29 +6209,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -6206,25 +6240,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -6233,29 +6267,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6264,16 +6298,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6284,7 +6318,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6293,29 +6327,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6324,16 +6358,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6342,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6351,16 +6385,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6369,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6377,16 +6411,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6395,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6404,29 +6438,29 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6435,29 +6469,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6466,10 +6500,10 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>57</v>
@@ -6481,7 +6515,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
@@ -6497,29 +6531,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6528,29 +6562,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6559,22 +6593,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6588,30 +6622,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6619,30 +6653,30 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6650,10 +6684,10 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>57</v>
@@ -6665,12 +6699,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6679,29 +6713,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6710,16 +6744,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6730,7 +6764,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6739,16 +6773,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6759,7 +6793,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6768,29 +6802,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6799,29 +6833,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6830,10 +6864,10 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>57</v>
@@ -6845,14 +6879,14 @@
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6861,10 +6895,10 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>57</v>
@@ -6876,12 +6910,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6890,10 +6924,10 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>57</v>
@@ -6905,7 +6939,7 @@
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
@@ -6921,22 +6955,22 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
@@ -6949,13 +6983,13 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>57</v>
@@ -6967,105 +7001,105 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -7074,29 +7108,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -7105,29 +7139,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -7136,10 +7170,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -7151,7 +7185,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -7167,10 +7201,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -7182,20 +7216,20 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -7203,29 +7237,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -7234,10 +7268,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
@@ -7249,14 +7283,14 @@
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="467">
   <si>
     <t>编号</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>①递归 ②迭代（通用） ③迭代（技巧） ④Mirror</t>
+  </si>
+  <si>
+    <t>二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>①递归 ②迭代（通用） ③Mirror</t>
   </si>
   <si>
     <t>Z字形变换</t>
@@ -2734,12 +2743,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3228,6 +3237,36 @@
         <v>70</v>
       </c>
     </row>
+    <row r="83" s="51" customFormat="1" spans="1:10">
+      <c r="A83" s="51">
+        <v>94</v>
+      </c>
+      <c r="B83" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F83" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="54">
+        <v>44487</v>
+      </c>
+      <c r="I83" s="54"/>
+      <c r="J83" s="51" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K7">
     <extLst/>
@@ -3246,6 +3285,7 @@
     <hyperlink ref="B63" r:id="rId11" display="排列硬币" tooltip="https://leetcode-cn.com/problems/arranging-coins/"/>
     <hyperlink ref="B76" r:id="rId12" display="只出现一次的数字" tooltip="https://leetcode-cn.com/problems/single-number/"/>
     <hyperlink ref="B82" r:id="rId13" display="二叉树的前序遍历" tooltip="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
+    <hyperlink ref="B83" r:id="rId14" display="二叉树的中序遍历" tooltip="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3314,29 +3354,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3345,22 +3385,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
@@ -3376,27 +3416,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3405,10 +3445,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3420,15 +3460,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3436,10 +3476,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>57</v>
@@ -3451,12 +3491,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3465,10 +3505,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3480,7 +3520,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3488,7 +3528,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3496,16 +3536,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3516,7 +3556,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3524,29 +3564,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3555,29 +3595,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3586,22 +3626,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3613,10 +3653,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3628,14 +3668,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3644,10 +3684,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3659,14 +3699,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3675,10 +3715,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3690,14 +3730,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3707,7 +3747,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3719,14 +3759,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3735,27 +3775,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3764,27 +3804,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3793,27 +3833,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3822,10 +3862,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
@@ -3837,12 +3877,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3851,29 +3891,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3882,29 +3922,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3913,10 +3953,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3928,10 +3968,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3940,27 +3980,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -3984,7 +4024,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3998,10 +4038,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
@@ -4013,7 +4053,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -4025,10 +4065,10 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>57</v>
@@ -4040,12 +4080,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -4054,29 +4094,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -4085,10 +4125,10 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
@@ -4103,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -4112,10 +4152,10 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
@@ -4132,7 +4172,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -4141,10 +4181,10 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>57</v>
@@ -4159,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -4168,27 +4208,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -4197,29 +4237,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -4228,16 +4268,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -4248,7 +4288,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -4257,29 +4297,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4288,16 +4328,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4308,7 +4348,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4317,16 +4357,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4337,7 +4377,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4361,7 +4401,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4370,7 +4410,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4379,10 +4419,10 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
@@ -4394,7 +4434,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4403,7 +4443,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4427,7 +4467,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4439,27 +4479,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4468,27 +4508,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4497,27 +4537,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4526,25 +4566,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4555,22 +4595,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4584,22 +4624,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4613,22 +4653,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4642,10 +4682,10 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>57</v>
@@ -4657,12 +4697,12 @@
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4671,10 +4711,10 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>57</v>
@@ -4686,14 +4726,14 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4702,27 +4742,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4731,10 +4771,10 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
@@ -4746,12 +4786,12 @@
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4760,29 +4800,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4791,10 +4831,10 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>57</v>
@@ -4806,7 +4846,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4818,27 +4858,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4847,10 +4887,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4862,14 +4902,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4878,16 +4918,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4898,7 +4938,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4907,10 +4947,10 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>57</v>
@@ -4927,7 +4967,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4936,16 +4976,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4956,7 +4996,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -4965,10 +5005,10 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>57</v>
@@ -4980,14 +5020,14 @@
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -4996,16 +5036,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -5016,7 +5056,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -5025,10 +5065,10 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>57</v>
@@ -5040,15 +5080,15 @@
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -5056,27 +5096,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -5085,25 +5125,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -5114,10 +5154,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -5129,12 +5169,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -5143,29 +5183,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -5174,29 +5214,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -5205,29 +5245,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -5236,16 +5276,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -5254,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -5263,29 +5303,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5294,29 +5334,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5325,10 +5365,10 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>57</v>
@@ -5340,14 +5380,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5356,10 +5396,10 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>57</v>
@@ -5371,14 +5411,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5387,7 +5427,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5404,10 +5444,10 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
@@ -5419,14 +5459,14 @@
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5435,10 +5475,10 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
@@ -5450,14 +5490,14 @@
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5466,10 +5506,10 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>57</v>
@@ -5481,15 +5521,15 @@
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5497,29 +5537,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5528,10 +5568,10 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>57</v>
@@ -5543,7 +5583,7 @@
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5552,7 +5592,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5561,29 +5601,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5592,7 +5632,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5600,10 +5640,10 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
@@ -5615,7 +5655,7 @@
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5624,7 +5664,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5633,29 +5673,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5664,29 +5704,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5695,29 +5735,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5726,10 +5766,10 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
@@ -5741,14 +5781,14 @@
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5757,10 +5797,10 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
@@ -5772,14 +5812,14 @@
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5788,29 +5828,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5819,29 +5859,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5850,29 +5890,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5881,10 +5921,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5896,7 +5936,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5912,29 +5952,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5943,16 +5983,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -5961,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -5970,29 +6010,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -6001,29 +6041,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -6032,10 +6072,10 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>57</v>
@@ -6047,14 +6087,14 @@
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -6063,10 +6103,10 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>57</v>
@@ -6078,14 +6118,14 @@
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -6094,10 +6134,10 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>57</v>
@@ -6109,15 +6149,15 @@
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -6125,25 +6165,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -6152,10 +6192,10 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
@@ -6167,10 +6207,10 @@
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6178,29 +6218,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -6209,29 +6249,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -6240,25 +6280,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -6267,29 +6307,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6298,16 +6338,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6318,7 +6358,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6327,29 +6367,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6358,16 +6398,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6376,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6385,16 +6425,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6403,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6411,16 +6451,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6429,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6438,10 +6478,10 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>57</v>
@@ -6453,14 +6493,14 @@
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6469,29 +6509,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6500,10 +6540,10 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>57</v>
@@ -6515,7 +6555,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
@@ -6531,29 +6571,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6562,29 +6602,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6593,22 +6633,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6622,30 +6662,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6653,10 +6693,10 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
@@ -6668,15 +6708,15 @@
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6684,10 +6724,10 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>57</v>
@@ -6699,12 +6739,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6713,29 +6753,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6744,16 +6784,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6764,7 +6804,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6773,16 +6813,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6793,7 +6833,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6802,29 +6842,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6833,29 +6873,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6864,10 +6904,10 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>57</v>
@@ -6879,14 +6919,14 @@
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6895,10 +6935,10 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>57</v>
@@ -6910,12 +6950,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6924,10 +6964,10 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>57</v>
@@ -6939,7 +6979,7 @@
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
@@ -6955,22 +6995,22 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
@@ -6983,13 +7023,13 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>57</v>
@@ -7001,24 +7041,24 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
@@ -7030,26 +7070,26 @@
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
@@ -7061,26 +7101,26 @@
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
@@ -7092,14 +7132,14 @@
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -7108,29 +7148,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -7139,29 +7179,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -7170,10 +7210,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -7185,7 +7225,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -7201,10 +7241,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -7216,20 +7256,20 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -7237,29 +7277,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -7268,10 +7308,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
@@ -7283,14 +7323,14 @@
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="470">
   <si>
     <t>编号</t>
   </si>
@@ -241,6 +241,21 @@
   </si>
   <si>
     <t>①递归 ②迭代（通用） ③Mirror</t>
+  </si>
+  <si>
+    <t>设计停车系统</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-parking-system/</t>
+  </si>
+  <si>
+    <t>编程练习、二进制</t>
+  </si>
+  <si>
+    <t>①成员变量 ②哈希表 ③二进制分段</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-parking-system/solution/yi-ti-san-jie-jian-dan-bian-liang-ha-xi-0gs72/; https://leetcode-cn.com/problems/design-parking-system/solution/qian-yang-she-ji-ting-che-xi-tong-er-jin-xf6u/</t>
   </si>
   <si>
     <t>Z字形变换</t>
@@ -1337,12 +1352,6 @@
   </si>
   <si>
     <t>①模拟 ②数学</t>
-  </si>
-  <si>
-    <t>设计停车系统</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/design-parking-system/</t>
   </si>
   <si>
     <t>解码异或后的数组</t>
@@ -1484,9 +1493,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -1572,21 +1581,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1600,8 +1594,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1631,6 +1640,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1648,53 +1704,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1791,25 +1800,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,7 +1866,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1851,49 +1908,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1911,43 +1938,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1982,26 +1991,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2017,39 +2017,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2079,6 +2046,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2087,10 +2096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2099,16 +2108,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2120,116 +2129,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2393,6 +2402,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2743,12 +2755,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomLeft" activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3267,6 +3279,39 @@
         <v>73</v>
       </c>
     </row>
+    <row r="112" s="51" customFormat="1" spans="1:11">
+      <c r="A112" s="51">
+        <v>1603</v>
+      </c>
+      <c r="B112" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E112" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F112" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="54">
+        <v>44490</v>
+      </c>
+      <c r="I112" s="54"/>
+      <c r="J112" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="K112" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K7">
     <extLst/>
@@ -3286,6 +3331,8 @@
     <hyperlink ref="B76" r:id="rId12" display="只出现一次的数字" tooltip="https://leetcode-cn.com/problems/single-number/"/>
     <hyperlink ref="B82" r:id="rId13" display="二叉树的前序遍历" tooltip="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
     <hyperlink ref="B83" r:id="rId14" display="二叉树的中序遍历" tooltip="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="B112" r:id="rId15" display="设计停车系统" tooltip="https://leetcode-cn.com/problems/design-parking-system/"/>
+    <hyperlink ref="K112" r:id="rId16" display="https://leetcode-cn.com/problems/design-parking-system/solution/yi-ti-san-jie-jian-dan-bian-liang-ha-xi-0gs72/; https://leetcode-cn.com/problems/design-parking-system/solution/qian-yang-she-ji-ting-che-xi-tong-er-jin-xf6u/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3354,29 +3401,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3385,22 +3432,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
@@ -3416,27 +3463,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3445,10 +3492,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3460,15 +3507,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3476,10 +3523,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>57</v>
@@ -3491,12 +3538,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3505,10 +3552,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3520,7 +3567,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3528,7 +3575,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3536,16 +3583,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3556,7 +3603,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3564,29 +3611,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3595,29 +3642,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3626,22 +3673,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3653,10 +3700,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3668,14 +3715,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3684,10 +3731,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3699,14 +3746,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3715,10 +3762,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3730,14 +3777,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3747,7 +3794,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3759,14 +3806,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3775,27 +3822,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3804,27 +3851,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3833,27 +3880,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3862,10 +3909,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
@@ -3877,12 +3924,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3891,29 +3938,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3922,29 +3969,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -3953,10 +4000,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -3968,10 +4015,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -3980,27 +4027,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -4024,7 +4071,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -4038,10 +4085,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
@@ -4053,7 +4100,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -4065,10 +4112,10 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>57</v>
@@ -4080,12 +4127,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -4094,29 +4141,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -4125,10 +4172,10 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
@@ -4143,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -4152,10 +4199,10 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
@@ -4172,7 +4219,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -4181,10 +4228,10 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>57</v>
@@ -4199,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -4208,27 +4255,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -4237,29 +4284,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -4268,16 +4315,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -4288,7 +4335,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -4297,29 +4344,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4328,16 +4375,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4348,7 +4395,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4357,16 +4404,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4377,7 +4424,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4401,7 +4448,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4410,7 +4457,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4419,10 +4466,10 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
@@ -4434,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4443,7 +4490,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4467,7 +4514,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4479,27 +4526,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4508,27 +4555,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4537,27 +4584,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4566,25 +4613,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4595,22 +4642,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4624,22 +4671,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4653,22 +4700,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4682,10 +4729,10 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>57</v>
@@ -4697,12 +4744,12 @@
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4711,10 +4758,10 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>57</v>
@@ -4726,14 +4773,14 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4742,27 +4789,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4771,10 +4818,10 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
@@ -4786,12 +4833,12 @@
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4800,29 +4847,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4831,10 +4878,10 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>57</v>
@@ -4846,7 +4893,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4858,27 +4905,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4887,10 +4934,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4902,14 +4949,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4918,16 +4965,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4938,7 +4985,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4947,10 +4994,10 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>57</v>
@@ -4967,7 +5014,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -4976,16 +5023,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -4996,7 +5043,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -5005,10 +5052,10 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>57</v>
@@ -5020,14 +5067,14 @@
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -5036,16 +5083,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -5056,7 +5103,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -5065,10 +5112,10 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>57</v>
@@ -5080,15 +5127,15 @@
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -5096,27 +5143,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -5125,25 +5172,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -5154,10 +5201,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -5169,12 +5216,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -5183,29 +5230,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -5214,29 +5261,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -5245,29 +5292,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -5276,16 +5323,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -5294,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -5303,29 +5350,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5334,29 +5381,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5365,10 +5412,10 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>57</v>
@@ -5380,14 +5427,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5396,10 +5443,10 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>57</v>
@@ -5411,14 +5458,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5427,7 +5474,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5444,10 +5491,10 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
@@ -5459,14 +5506,14 @@
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5475,10 +5522,10 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
@@ -5490,14 +5537,14 @@
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5506,10 +5553,10 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>57</v>
@@ -5521,15 +5568,15 @@
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5537,29 +5584,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5568,10 +5615,10 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>57</v>
@@ -5583,7 +5630,7 @@
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5592,7 +5639,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5601,29 +5648,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5632,7 +5679,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5640,10 +5687,10 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
@@ -5655,7 +5702,7 @@
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5664,7 +5711,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5673,29 +5720,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5704,29 +5751,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5735,29 +5782,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5766,10 +5813,10 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
@@ -5781,14 +5828,14 @@
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5797,10 +5844,10 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
@@ -5812,14 +5859,14 @@
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5828,29 +5875,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5859,29 +5906,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5890,29 +5937,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5921,10 +5968,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5936,7 +5983,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5952,29 +5999,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -5983,16 +6030,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -6001,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -6010,29 +6057,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -6041,29 +6088,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -6072,10 +6119,10 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>57</v>
@@ -6087,14 +6134,14 @@
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -6103,10 +6150,10 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>57</v>
@@ -6118,14 +6165,14 @@
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -6134,10 +6181,10 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>57</v>
@@ -6149,15 +6196,15 @@
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -6165,25 +6212,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -6192,10 +6239,10 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
@@ -6207,10 +6254,10 @@
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6218,29 +6265,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -6249,29 +6296,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -6280,25 +6327,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -6307,29 +6354,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6338,16 +6385,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6358,7 +6405,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6367,29 +6414,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6398,16 +6445,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6416,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6425,16 +6472,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6443,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6451,16 +6498,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6469,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6478,10 +6525,10 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>57</v>
@@ -6493,14 +6540,14 @@
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6509,29 +6556,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6540,10 +6587,10 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>57</v>
@@ -6555,7 +6602,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
@@ -6571,29 +6618,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6602,29 +6649,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6633,22 +6680,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6662,30 +6709,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6693,10 +6740,10 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
@@ -6708,15 +6755,15 @@
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6724,10 +6771,10 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>57</v>
@@ -6739,12 +6786,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6753,29 +6800,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6784,16 +6831,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6804,7 +6851,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6813,16 +6860,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6833,7 +6880,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6842,29 +6889,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6873,29 +6920,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6904,10 +6951,10 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>57</v>
@@ -6919,14 +6966,14 @@
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6935,10 +6982,10 @@
         <v>1603</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>429</v>
+        <v>75</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>57</v>
@@ -6950,12 +6997,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -6964,10 +7011,10 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>57</v>
@@ -6979,7 +7026,7 @@
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
@@ -6995,22 +7042,22 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
@@ -7023,13 +7070,13 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>57</v>
@@ -7041,24 +7088,24 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
@@ -7070,26 +7117,26 @@
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
@@ -7101,26 +7148,26 @@
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
@@ -7132,14 +7179,14 @@
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -7148,29 +7195,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -7179,29 +7226,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -7210,10 +7257,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -7225,7 +7272,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -7241,10 +7288,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -7256,20 +7303,20 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -7277,29 +7324,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -7308,10 +7355,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
@@ -7323,14 +7370,14 @@
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="474">
   <si>
     <t>编号</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/design-parking-system/solution/yi-ti-san-jie-jian-dan-bian-liang-ha-xi-0gs72/; https://leetcode-cn.com/problems/design-parking-system/solution/qian-yang-she-ji-ting-che-xi-tong-er-jin-xf6u/</t>
+  </si>
+  <si>
+    <t>最小栈</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/min-stack/</t>
+  </si>
+  <si>
+    <t>栈</t>
+  </si>
+  <si>
+    <t>①双栈</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/leetbook/read/designing-data-structures/ru64lr/</t>
   </si>
   <si>
     <t>Z字形变换</t>
@@ -804,9 +819,6 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/implement-queue-using-stacks/</t>
-  </si>
-  <si>
-    <t>栈</t>
   </si>
   <si>
     <t>二叉搜索树的最近公共祖先</t>
@@ -2755,12 +2767,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J106" sqref="J106"/>
+      <selection pane="bottomLeft" activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3312,6 +3324,39 @@
         <v>78</v>
       </c>
     </row>
+    <row r="113" s="51" customFormat="1" spans="1:11">
+      <c r="A113" s="51">
+        <v>155</v>
+      </c>
+      <c r="B113" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D113" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E113" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F113" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" s="54">
+        <v>44490</v>
+      </c>
+      <c r="I113" s="54"/>
+      <c r="J113" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="K113" s="55" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K7">
     <extLst/>
@@ -3333,6 +3378,7 @@
     <hyperlink ref="B83" r:id="rId14" display="二叉树的中序遍历" tooltip="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/"/>
     <hyperlink ref="B112" r:id="rId15" display="设计停车系统" tooltip="https://leetcode-cn.com/problems/design-parking-system/"/>
     <hyperlink ref="K112" r:id="rId16" display="https://leetcode-cn.com/problems/design-parking-system/solution/yi-ti-san-jie-jian-dan-bian-liang-ha-xi-0gs72/; https://leetcode-cn.com/problems/design-parking-system/solution/qian-yang-she-ji-ting-che-xi-tong-er-jin-xf6u/"/>
+    <hyperlink ref="B113" r:id="rId17" display="最小栈" tooltip="https://leetcode-cn.com/problems/min-stack/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3401,29 +3447,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3432,22 +3478,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
@@ -3463,27 +3509,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3492,10 +3538,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3507,15 +3553,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3523,10 +3569,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>57</v>
@@ -3538,12 +3584,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3552,10 +3598,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3567,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3575,7 +3621,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3583,16 +3629,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3603,7 +3649,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3611,29 +3657,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3642,29 +3688,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3673,22 +3719,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3700,10 +3746,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3715,14 +3761,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3731,10 +3777,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3746,14 +3792,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3762,10 +3808,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3777,14 +3823,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3794,7 +3840,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3806,14 +3852,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3822,27 +3868,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3851,27 +3897,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3880,27 +3926,27 @@
         <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3909,10 +3955,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
@@ -3924,12 +3970,12 @@
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K22" s="35"/>
     </row>
@@ -3938,29 +3984,29 @@
         <v>62</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H23" s="24">
         <v>44389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K23" s="39"/>
     </row>
@@ -3969,29 +4015,29 @@
         <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H24" s="17">
         <v>44305</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K24" s="34"/>
     </row>
@@ -4000,10 +4046,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>20</v>
@@ -4015,10 +4061,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K25" s="40"/>
     </row>
@@ -4027,27 +4073,27 @@
         <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K26" s="41"/>
     </row>
@@ -4071,7 +4117,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -4085,10 +4131,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
@@ -4100,7 +4146,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -4112,10 +4158,10 @@
         <v>83</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>57</v>
@@ -4127,12 +4173,12 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K29" s="36"/>
     </row>
@@ -4141,29 +4187,29 @@
         <v>96</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H30" s="17">
         <v>44315</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K30" s="34"/>
     </row>
@@ -4172,10 +4218,10 @@
         <v>102</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>20</v>
@@ -4190,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K31" s="21"/>
     </row>
@@ -4199,10 +4245,10 @@
         <v>103</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>20</v>
@@ -4219,7 +4265,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K32" s="21"/>
     </row>
@@ -4228,10 +4274,10 @@
         <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>57</v>
@@ -4246,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K33" s="21"/>
     </row>
@@ -4255,27 +4301,27 @@
         <v>121</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="13" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K34" s="21"/>
     </row>
@@ -4284,29 +4330,29 @@
         <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H35" s="17">
         <v>44343</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K35" s="34"/>
     </row>
@@ -4315,16 +4361,16 @@
         <v>125</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>15</v>
@@ -4335,7 +4381,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="13" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K36" s="21"/>
     </row>
@@ -4344,29 +4390,29 @@
         <v>130</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H37" s="17">
         <v>44302</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -4375,16 +4421,16 @@
         <v>131</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -4395,7 +4441,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="13" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K38" s="21"/>
     </row>
@@ -4404,16 +4450,16 @@
         <v>132</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>15</v>
@@ -4424,7 +4470,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="13" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K39" s="21"/>
     </row>
@@ -4448,7 +4494,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H40" s="17">
         <v>44322</v>
@@ -4457,7 +4503,7 @@
         <v>44334</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K40" s="34"/>
     </row>
@@ -4466,10 +4512,10 @@
         <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>20</v>
@@ -4481,7 +4527,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H41" s="17">
         <v>44322</v>
@@ -4490,7 +4536,7 @@
         <v>44334</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K41" s="34"/>
     </row>
@@ -4514,7 +4560,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -4526,27 +4572,27 @@
         <v>150</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K43" s="42"/>
     </row>
@@ -4555,27 +4601,27 @@
         <v>153</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K44" s="35"/>
     </row>
@@ -4584,27 +4630,27 @@
         <v>154</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K45" s="35"/>
     </row>
@@ -4613,25 +4659,25 @@
         <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="8"/>
@@ -4642,22 +4688,22 @@
         <v>175</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H47" s="30">
         <v>44314</v>
@@ -4671,22 +4717,22 @@
         <v>176</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H48" s="30">
         <v>44314</v>
@@ -4700,22 +4746,22 @@
         <v>177</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H49" s="30">
         <v>44314</v>
@@ -4729,10 +4775,10 @@
         <v>190</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>57</v>
@@ -4744,12 +4790,12 @@
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K50" s="37"/>
     </row>
@@ -4758,10 +4804,10 @@
         <v>191</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>57</v>
@@ -4773,14 +4819,14 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H51" s="17">
         <v>44347</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K51" s="34"/>
     </row>
@@ -4789,27 +4835,27 @@
         <v>198</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K52" s="44"/>
     </row>
@@ -4818,10 +4864,10 @@
         <v>199</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>20</v>
@@ -4833,12 +4879,12 @@
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K53" s="37"/>
     </row>
@@ -4847,29 +4893,29 @@
         <v>200</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H54" s="17">
         <v>44301</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K54" s="34"/>
     </row>
@@ -4878,10 +4924,10 @@
         <v>206</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>57</v>
@@ -4893,7 +4939,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4905,27 +4951,27 @@
         <v>208</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K56" s="40"/>
     </row>
@@ -4934,10 +4980,10 @@
         <v>216</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>20</v>
@@ -4949,14 +4995,14 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H57" s="17">
         <v>44311</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K57" s="34"/>
     </row>
@@ -4965,16 +5011,16 @@
         <v>225</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>15</v>
@@ -4985,7 +5031,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K58" s="21"/>
     </row>
@@ -4994,10 +5040,10 @@
         <v>226</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>57</v>
@@ -5014,7 +5060,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K59" s="21"/>
     </row>
@@ -5023,16 +5069,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>15</v>
@@ -5043,7 +5089,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K60" s="13"/>
     </row>
@@ -5052,10 +5098,10 @@
         <v>231</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>57</v>
@@ -5067,14 +5113,14 @@
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H61" s="17">
         <v>44347</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K61" s="34"/>
     </row>
@@ -5083,16 +5129,16 @@
         <v>232</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>15</v>
@@ -5103,7 +5149,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K62" s="13"/>
     </row>
@@ -5112,10 +5158,10 @@
         <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>57</v>
@@ -5127,15 +5173,15 @@
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:11">
@@ -5143,27 +5189,27 @@
         <v>240</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K64" s="41"/>
     </row>
@@ -5172,25 +5218,25 @@
         <v>250</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="8"/>
@@ -5201,10 +5247,10 @@
         <v>289</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>20</v>
@@ -5216,12 +5262,12 @@
         <v>15</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K66" s="40"/>
     </row>
@@ -5230,29 +5276,29 @@
         <v>303</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H67" s="17">
         <v>44328</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K67" s="34"/>
     </row>
@@ -5261,29 +5307,29 @@
         <v>304</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H68" s="17">
         <v>44328</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K68" s="34"/>
     </row>
@@ -5292,29 +5338,29 @@
         <v>305</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K69" s="8"/>
     </row>
@@ -5323,16 +5369,16 @@
         <v>338</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>15</v>
@@ -5341,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -5350,29 +5396,29 @@
         <v>342</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H71" s="17">
         <v>44347</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K71" s="34"/>
     </row>
@@ -5381,29 +5427,29 @@
         <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H72" s="17">
         <v>44307</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K72" s="34"/>
     </row>
@@ -5412,10 +5458,10 @@
         <v>344</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>57</v>
@@ -5427,14 +5473,14 @@
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H73" s="17">
         <v>44307</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K73" s="34"/>
     </row>
@@ -5443,10 +5489,10 @@
         <v>345</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>57</v>
@@ -5458,14 +5504,14 @@
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H74" s="17">
         <v>44307</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K74" s="34"/>
     </row>
@@ -5474,7 +5520,7 @@
         <v>346</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5491,10 +5537,10 @@
         <v>371</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>20</v>
@@ -5506,14 +5552,14 @@
         <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H76" s="17">
         <v>44306</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K76" s="34"/>
     </row>
@@ -5522,10 +5568,10 @@
         <v>393</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
@@ -5537,14 +5583,14 @@
         <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H77" s="17">
         <v>44334</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K77" s="34"/>
     </row>
@@ -5553,10 +5599,10 @@
         <v>405</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>57</v>
@@ -5568,15 +5614,15 @@
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5584,29 +5630,29 @@
         <v>455</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H79" s="17">
         <v>44343</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K79" s="34"/>
     </row>
@@ -5615,10 +5661,10 @@
         <v>461</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>57</v>
@@ -5630,7 +5676,7 @@
         <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H80" s="17">
         <v>44343</v>
@@ -5639,7 +5685,7 @@
         <v>44347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K80" s="34"/>
     </row>
@@ -5648,29 +5694,29 @@
         <v>463</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H81" s="17">
         <v>44301</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K81" s="34"/>
     </row>
@@ -5679,7 +5725,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5687,10 +5733,10 @@
         <v>477</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>20</v>
@@ -5702,7 +5748,7 @@
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H83" s="17">
         <v>44344</v>
@@ -5711,7 +5757,7 @@
         <v>44347</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -5720,29 +5766,29 @@
         <v>510</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -5751,29 +5797,29 @@
         <v>511</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K85" s="34"/>
     </row>
@@ -5782,29 +5828,29 @@
         <v>512</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K86" s="34"/>
     </row>
@@ -5813,10 +5859,10 @@
         <v>513</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>20</v>
@@ -5828,14 +5874,14 @@
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H87" s="17">
         <v>44357</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K87" s="34"/>
     </row>
@@ -5844,10 +5890,10 @@
         <v>515</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>20</v>
@@ -5859,14 +5905,14 @@
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H88" s="17">
         <v>44357</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K88" s="34"/>
     </row>
@@ -5875,29 +5921,29 @@
         <v>517</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H89" s="17">
         <v>44357</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K89" s="34"/>
     </row>
@@ -5906,29 +5952,29 @@
         <v>523</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H90" s="17">
         <v>44349</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K90" s="34"/>
     </row>
@@ -5937,29 +5983,29 @@
         <v>524</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H91" s="17">
         <v>44349</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K91" s="34"/>
     </row>
@@ -5968,10 +6014,10 @@
         <v>526</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>20</v>
@@ -5983,7 +6029,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H92" s="17">
         <v>44349</v>
@@ -5999,29 +6045,29 @@
         <v>527</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K93" s="34"/>
     </row>
@@ -6030,16 +6076,16 @@
         <v>543</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>15</v>
@@ -6048,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K94" s="40"/>
     </row>
@@ -6057,29 +6103,29 @@
         <v>554</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H95" s="17">
         <v>44322</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K95" s="34"/>
     </row>
@@ -6088,29 +6134,29 @@
         <v>589</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H96" s="17">
         <v>44344</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K96" s="34"/>
     </row>
@@ -6119,10 +6165,10 @@
         <v>589</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>57</v>
@@ -6134,14 +6180,14 @@
         <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H97" s="17">
         <v>44355</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K97" s="34"/>
     </row>
@@ -6150,10 +6196,10 @@
         <v>590</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>57</v>
@@ -6165,14 +6211,14 @@
         <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H98" s="17">
         <v>44355</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K98" s="34"/>
     </row>
@@ -6181,10 +6227,10 @@
         <v>617</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>57</v>
@@ -6196,15 +6242,15 @@
         <v>15</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -6212,25 +6258,25 @@
         <v>648</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K100" s="40"/>
     </row>
@@ -6239,10 +6285,10 @@
         <v>654</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>20</v>
@@ -6254,10 +6300,10 @@
         <v>15</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6265,29 +6311,29 @@
         <v>690</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H102" s="17">
         <v>44322</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K102" s="34"/>
     </row>
@@ -6296,29 +6342,29 @@
         <v>695</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H103" s="17">
         <v>44301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K103" s="34"/>
     </row>
@@ -6327,25 +6373,25 @@
         <v>720</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K104" s="40"/>
     </row>
@@ -6354,29 +6400,29 @@
         <v>739</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H105" s="17">
         <v>44306</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K105" s="34"/>
     </row>
@@ -6385,16 +6431,16 @@
         <v>824</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>15</v>
@@ -6405,7 +6451,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="13" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K106" s="40"/>
     </row>
@@ -6414,29 +6460,29 @@
         <v>827</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H107" s="17">
         <v>44302</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K107" s="34"/>
     </row>
@@ -6445,16 +6491,16 @@
         <v>832</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>15</v>
@@ -6463,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K108" s="21"/>
     </row>
@@ -6472,16 +6518,16 @@
         <v>867</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>15</v>
@@ -6490,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6498,16 +6544,16 @@
         <v>868</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>15</v>
@@ -6516,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K110" s="40"/>
     </row>
@@ -6525,10 +6571,10 @@
         <v>872</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>57</v>
@@ -6540,14 +6586,14 @@
         <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H111" s="17">
         <v>44326</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K111" s="34"/>
     </row>
@@ -6556,29 +6602,29 @@
         <v>873</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H112" s="17">
         <v>44326</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K112" s="34"/>
     </row>
@@ -6587,10 +6633,10 @@
         <v>874</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>57</v>
@@ -6602,7 +6648,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H113" s="17">
         <v>44326</v>
@@ -6618,29 +6664,29 @@
         <v>875</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H114" s="17">
         <v>44326</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K114" s="34"/>
     </row>
@@ -6649,29 +6695,29 @@
         <v>926</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H115" s="17">
         <v>44305</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K115" s="34"/>
     </row>
@@ -6680,22 +6726,22 @@
         <v>965</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H116" s="17">
         <v>44348</v>
@@ -6709,30 +6755,30 @@
         <v>997</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="13" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6740,10 +6786,10 @@
         <v>998</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>20</v>
@@ -6755,15 +6801,15 @@
         <v>15</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="13" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6771,10 +6817,10 @@
         <v>999</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>57</v>
@@ -6786,12 +6832,12 @@
         <v>15</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K119" s="21"/>
     </row>
@@ -6800,29 +6846,29 @@
         <v>1019</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H120" s="17">
         <v>44306</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K120" s="34"/>
     </row>
@@ -6831,16 +6877,16 @@
         <v>1047</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>15</v>
@@ -6851,7 +6897,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="13" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K121" s="21"/>
     </row>
@@ -6860,16 +6906,16 @@
         <v>1052</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>15</v>
@@ -6880,7 +6926,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="13" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K122" s="40"/>
     </row>
@@ -6889,29 +6935,29 @@
         <v>1310</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H123" s="17">
         <v>44328</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="3" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K123" s="34"/>
     </row>
@@ -6920,29 +6966,29 @@
         <v>1442</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H124" s="17">
         <v>44334</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="3" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K124" s="34"/>
     </row>
@@ -6951,10 +6997,10 @@
         <v>1486</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>57</v>
@@ -6966,14 +7012,14 @@
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H125" s="17">
         <v>44323</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="3" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K125" s="34"/>
     </row>
@@ -6997,12 +7043,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K126" s="40"/>
     </row>
@@ -7011,10 +7057,10 @@
         <v>1720</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>57</v>
@@ -7026,7 +7072,7 @@
         <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H127" s="17">
         <v>44322</v>
@@ -7042,22 +7088,22 @@
         <v>1880</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H128" s="17">
         <v>44357</v>
@@ -7070,13 +7116,13 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="10" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>57</v>
@@ -7088,24 +7134,24 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>20</v>
@@ -7117,26 +7163,26 @@
         <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H130" s="17">
         <v>44313</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K130" s="34"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>20</v>
@@ -7148,26 +7194,26 @@
         <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H131" s="17">
         <v>44313</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K131" s="34"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>20</v>
@@ -7179,14 +7225,14 @@
         <v>15</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H132" s="17">
         <v>44313</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K132" s="34"/>
     </row>
@@ -7195,29 +7241,29 @@
         <v>401</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H139" s="24">
         <v>44368</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K139" s="39"/>
     </row>
@@ -7226,29 +7272,29 @@
         <v>402</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H140" s="47">
         <v>44368</v>
       </c>
       <c r="I140" s="47"/>
       <c r="J140" s="12" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K140" s="48"/>
     </row>
@@ -7257,10 +7303,10 @@
         <v>46</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>20</v>
@@ -7272,7 +7318,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H141" s="24">
         <v>44369</v>
@@ -7288,10 +7334,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>20</v>
@@ -7303,20 +7349,20 @@
         <v>15</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H142" s="47">
         <v>44369</v>
       </c>
       <c r="I142" s="47"/>
       <c r="J142" s="12" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K142" s="48"/>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:11">
@@ -7324,29 +7370,29 @@
         <v>1</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H148" s="24">
         <v>44372</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="4" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K148" s="39"/>
     </row>
@@ -7355,10 +7401,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>20</v>
@@ -7370,14 +7416,14 @@
         <v>15</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H149" s="24">
         <v>44372</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K149" s="39"/>
     </row>

--- a/README.xlsx
+++ b/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="478">
   <si>
     <t>编号</t>
   </si>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/leetbook/read/designing-data-structures/ru64lr/</t>
+  </si>
+  <si>
+    <t>LRU 缓存机制</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lru-cache/</t>
+  </si>
+  <si>
+    <t>①双向链表</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lru-cache/solution/gong-shui-san-xie-she-ji-shu-ju-jie-gou-68hv2/; https://leetcode-cn.com/problems/lru-cache/solution/lruhuan-cun-ji-zhi-by-leetcode-solution/</t>
   </si>
   <si>
     <t>Z字形变换</t>
@@ -2250,7 +2262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2414,6 +2426,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2767,12 +2782,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J118" sqref="J118"/>
+      <selection pane="bottomLeft" activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="13.5"/>
@@ -3353,8 +3368,41 @@
       <c r="J113" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="K113" s="55" t="s">
+      <c r="K113" s="56" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="114" s="51" customFormat="1" spans="1:11">
+      <c r="A114" s="51">
+        <v>146</v>
+      </c>
+      <c r="B114" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D114" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F114" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" s="54">
+        <v>44490</v>
+      </c>
+      <c r="I114" s="54"/>
+      <c r="J114" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="K114" s="56" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3379,6 +3427,8 @@
     <hyperlink ref="B112" r:id="rId15" display="设计停车系统" tooltip="https://leetcode-cn.com/problems/design-parking-system/"/>
     <hyperlink ref="K112" r:id="rId16" display="https://leetcode-cn.com/problems/design-parking-system/solution/yi-ti-san-jie-jian-dan-bian-liang-ha-xi-0gs72/; https://leetcode-cn.com/problems/design-parking-system/solution/qian-yang-she-ji-ting-che-xi-tong-er-jin-xf6u/"/>
     <hyperlink ref="B113" r:id="rId17" display="最小栈" tooltip="https://leetcode-cn.com/problems/min-stack/"/>
+    <hyperlink ref="B114" r:id="rId18" display="LRU 缓存机制" tooltip="https://leetcode-cn.com/problems/lru-cache/"/>
+    <hyperlink ref="K114" r:id="rId19" display="https://leetcode-cn.com/problems/lru-cache/solution/gong-shui-san-xie-she-ji-shu-ju-jie-gou-68hv2/; https://leetcode-cn.com/problems/lru-cache/solution/lruhuan-cun-ji-zhi-by-leetcode-solution/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3447,29 +3497,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H3" s="15">
         <v>44362</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K3" s="33"/>
     </row>
@@ -3478,22 +3528,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H4" s="17">
         <v>44323</v>
@@ -3509,27 +3559,27 @@
         <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -3538,10 +3588,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -3553,15 +3603,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3569,10 +3619,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>57</v>
@@ -3584,12 +3634,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K7" s="35"/>
     </row>
@@ -3598,10 +3648,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3613,7 +3663,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3621,7 +3671,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3629,16 +3679,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -3649,7 +3699,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3657,29 +3707,29 @@
         <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H10" s="17">
         <v>44305</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K10" s="34"/>
     </row>
@@ -3688,29 +3738,29 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H11" s="17">
         <v>44305</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K11" s="34"/>
     </row>
@@ -3719,22 +3769,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3746,10 +3796,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -3761,14 +3811,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H13" s="15">
         <v>44363</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -3777,10 +3827,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
@@ -3792,14 +3842,14 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H14" s="17">
         <v>44311</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -3808,10 +3858,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -3823,14 +3873,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H17" s="17">
         <v>44309</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K17" s="34"/>
     </row>
@@ -3840,7 +3890,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -3852,14 +3902,14 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H18" s="17">
         <v>44309</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -3868,27 +3918,27 @@
         <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K19" s="21"/>
     </row>
@@ -3897,27 +3947,27 @@
         <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="13" t="s">
-        <v>140</v>
+        <v>144</v>
    